--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_25_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2266212.562637724</v>
+        <v>2262834.930538507</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5581982.370494553</v>
+        <v>5581982.370494555</v>
       </c>
     </row>
     <row r="9">
@@ -1369,26 +1369,26 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.7234915084537</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>168.7234915084539</v>
+      </c>
+      <c r="H11" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="Y11" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.85015494923759</v>
+        <v>44.85015494923762</v>
       </c>
       <c r="C12" t="n">
-        <v>43.71947198819457</v>
+        <v>43.7194719881946</v>
       </c>
       <c r="D12" t="n">
-        <v>23.35986155742033</v>
+        <v>23.35986155742036</v>
       </c>
       <c r="E12" t="n">
-        <v>29.65380983290702</v>
+        <v>29.65380983290704</v>
       </c>
       <c r="F12" t="n">
-        <v>17.75927190838539</v>
+        <v>17.75927190838541</v>
       </c>
       <c r="G12" t="n">
-        <v>12.53518838055581</v>
+        <v>12.53518838055584</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.5137793534459</v>
+        <v>11.51377935344593</v>
       </c>
       <c r="T12" t="n">
-        <v>66.17499355293951</v>
+        <v>66.17499355293961</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4753605289238</v>
+        <v>102.4753605289237</v>
       </c>
       <c r="V12" t="n">
         <v>114.8863854653295</v>
@@ -1514,10 +1514,10 @@
         <v>122.3878572607319</v>
       </c>
       <c r="X12" t="n">
-        <v>81.98579072617433</v>
+        <v>81.98579072617436</v>
       </c>
       <c r="Y12" t="n">
-        <v>72.09285860793371</v>
+        <v>72.09285860793374</v>
       </c>
     </row>
     <row r="13">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>77.92772235707416</v>
       </c>
       <c r="C13" t="n">
-        <v>63.07485060735654</v>
+        <v>63.07485060735657</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>48.64856581919629</v>
       </c>
       <c r="E13" t="n">
-        <v>48.57500787207537</v>
+        <v>48.5750078720754</v>
       </c>
       <c r="F13" t="n">
-        <v>50.32445929184264</v>
+        <v>50.32445929184267</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.39227582534522</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>41.81828648686122</v>
       </c>
       <c r="I13" t="n">
-        <v>3.750003557917271</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>67.59502241192395</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>177.1152228901736</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>157.8913355800699</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>175.06888190082</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>62.11200952739903</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>115.452724424209</v>
       </c>
     </row>
     <row r="14">
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>104.1392961391512</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>108.5082486499793</v>
+      </c>
+      <c r="U14" t="n">
+        <v>147.6330442538985</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>191.5570975345752</v>
-      </c>
-      <c r="H14" t="n">
-        <v>168.7234915084537</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>191.5570975345752</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.85015494923759</v>
+        <v>44.85015494923762</v>
       </c>
       <c r="C15" t="n">
-        <v>43.71947198819457</v>
+        <v>43.7194719881946</v>
       </c>
       <c r="D15" t="n">
-        <v>23.35986155742033</v>
+        <v>23.35986155742036</v>
       </c>
       <c r="E15" t="n">
-        <v>29.65380983290702</v>
+        <v>29.65380983290704</v>
       </c>
       <c r="F15" t="n">
-        <v>17.75927190838539</v>
+        <v>17.75927190838541</v>
       </c>
       <c r="G15" t="n">
-        <v>12.53518838055581</v>
+        <v>12.53518838055584</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>11.51377935344589</v>
+        <v>11.51377935344592</v>
       </c>
       <c r="T15" t="n">
-        <v>66.1749935529396</v>
+        <v>66.17499355293963</v>
       </c>
       <c r="U15" t="n">
         <v>102.4753605289236</v>
@@ -1751,10 +1751,10 @@
         <v>122.3878572607319</v>
       </c>
       <c r="X15" t="n">
-        <v>81.98579072617433</v>
+        <v>81.98579072617436</v>
       </c>
       <c r="Y15" t="n">
-        <v>72.09285860793371</v>
+        <v>72.09285860793374</v>
       </c>
     </row>
     <row r="16">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>77.92772235707416</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.07485060735657</v>
       </c>
       <c r="D16" t="n">
-        <v>48.64856581919626</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>50.32445929184264</v>
+        <v>50.32445929184267</v>
       </c>
       <c r="G16" t="n">
-        <v>58.99948675693997</v>
+        <v>60.39227582534522</v>
       </c>
       <c r="H16" t="n">
-        <v>41.81828648686119</v>
+        <v>13.18006839203468</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>124.724735595424</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>177.1152228901736</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>175.06888190082</v>
       </c>
       <c r="X16" t="n">
         <v>126.3113028475326</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.4527244242089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="F17" t="n">
         <v>191.5570975345752</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65.09704896472968</v>
+        <v>65.09704896472962</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>103.6264425437241</v>
       </c>
       <c r="V17" t="n">
-        <v>189.846325370953</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>105.3372147073462</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.438955263987964</v>
+        <v>1.438955263987907</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3082723029449426</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>26.25295412599746</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>78.76275312747819</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>116.94199550076</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>22.76379386768997</v>
+        <v>22.76379386768991</v>
       </c>
       <c r="U18" t="n">
-        <v>59.06416084367399</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="V18" t="n">
-        <v>71.47518578007987</v>
+        <v>71.47518578007981</v>
       </c>
       <c r="W18" t="n">
-        <v>78.97665757548225</v>
+        <v>154.6840337864744</v>
       </c>
       <c r="X18" t="n">
-        <v>38.5745910409247</v>
+        <v>38.57459104092464</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.68165892268408</v>
+        <v>28.68165892268402</v>
       </c>
     </row>
     <row r="19">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5165226718245</v>
+        <v>34.51652267182445</v>
       </c>
       <c r="C19" t="n">
-        <v>19.66365092210691</v>
+        <v>19.66365092210685</v>
       </c>
       <c r="D19" t="n">
-        <v>5.237366133946637</v>
+        <v>5.23736613394658</v>
       </c>
       <c r="E19" t="n">
-        <v>5.163808186825747</v>
+        <v>5.16380818682569</v>
       </c>
       <c r="F19" t="n">
-        <v>6.913259606593016</v>
+        <v>6.913259606592959</v>
       </c>
       <c r="G19" t="n">
-        <v>16.98107614009556</v>
+        <v>16.9810761400955</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>38.86025257851833</v>
+        <v>38.82209532405629</v>
       </c>
       <c r="T19" t="n">
-        <v>81.31353591017438</v>
+        <v>81.31353591017432</v>
       </c>
       <c r="U19" t="n">
-        <v>133.704023204924</v>
+        <v>133.7040232049239</v>
       </c>
       <c r="V19" t="n">
-        <v>114.4419786403576</v>
+        <v>114.4801358948202</v>
       </c>
       <c r="W19" t="n">
-        <v>131.6576822155704</v>
+        <v>131.6576822155703</v>
       </c>
       <c r="X19" t="n">
-        <v>82.90010316228296</v>
+        <v>82.9001031622829</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.04152473895931</v>
+        <v>72.04152473895925</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>105.3372147073464</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>65.09704896472968</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>189.846325370953</v>
+        <v>168.7234915084537</v>
       </c>
       <c r="W20" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.88041566376307</v>
+        <v>1.438955263987907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3082723029449426</v>
+        <v>0.3082723029448857</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.9634045278699</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.07255359301027</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>22.76379386768997</v>
+        <v>171.6032097002537</v>
       </c>
       <c r="U21" t="n">
-        <v>59.06416084367399</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="V21" t="n">
-        <v>71.47518578007987</v>
+        <v>74.26322229598453</v>
       </c>
       <c r="W21" t="n">
-        <v>78.97665757548225</v>
+        <v>78.97665757548219</v>
       </c>
       <c r="X21" t="n">
-        <v>38.5745910409247</v>
+        <v>38.57459104092464</v>
       </c>
       <c r="Y21" t="n">
-        <v>28.68165892268408</v>
+        <v>28.68165892268402</v>
       </c>
     </row>
     <row r="22">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5165226718245</v>
+        <v>34.51652267182445</v>
       </c>
       <c r="C22" t="n">
-        <v>19.66365092210691</v>
+        <v>19.66365092210685</v>
       </c>
       <c r="D22" t="n">
-        <v>5.237366133946637</v>
+        <v>5.199208879484638</v>
       </c>
       <c r="E22" t="n">
-        <v>5.163808186825747</v>
+        <v>5.16380818682569</v>
       </c>
       <c r="F22" t="n">
-        <v>6.913259606593016</v>
+        <v>6.913259606592959</v>
       </c>
       <c r="G22" t="n">
-        <v>16.98107614009556</v>
+        <v>16.9810761400955</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>38.86025257851833</v>
+        <v>38.86025257851828</v>
       </c>
       <c r="T22" t="n">
-        <v>81.27537865571196</v>
+        <v>81.31353591017432</v>
       </c>
       <c r="U22" t="n">
-        <v>133.704023204924</v>
+        <v>133.7040232049239</v>
       </c>
       <c r="V22" t="n">
-        <v>114.4801358948203</v>
+        <v>114.4801358948202</v>
       </c>
       <c r="W22" t="n">
-        <v>131.6576822155704</v>
+        <v>131.6576822155703</v>
       </c>
       <c r="X22" t="n">
-        <v>82.90010316228296</v>
+        <v>82.9001031622829</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.04152473895931</v>
+        <v>72.04152473895925</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>191.5669298512273</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>191.5669298512273</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>13.87599973048989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>191.5669298512269</v>
       </c>
       <c r="F23" t="n">
-        <v>191.5669298512273</v>
+        <v>191.5669298512269</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>191.5669298512269</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>154.8561520824708</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>104.2218445686489</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>64.51030724431197</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.438955263987964</v>
+        <v>1.438955263987907</v>
       </c>
       <c r="C24" t="n">
-        <v>73.42655922461688</v>
+        <v>0.3082723029448857</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>33.84678610207719</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.07255359301027</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>171.6032097002537</v>
+        <v>22.76379386768991</v>
       </c>
       <c r="U24" t="n">
-        <v>59.06416084367399</v>
+        <v>110.5025335361519</v>
       </c>
       <c r="V24" t="n">
-        <v>71.47518578007987</v>
+        <v>191.5669298512269</v>
       </c>
       <c r="W24" t="n">
-        <v>78.97665757548225</v>
+        <v>191.5669298512269</v>
       </c>
       <c r="X24" t="n">
-        <v>38.5745910409247</v>
+        <v>38.57459104092464</v>
       </c>
       <c r="Y24" t="n">
-        <v>28.68165892268408</v>
+        <v>28.68165892268402</v>
       </c>
     </row>
     <row r="25">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5165226718245</v>
+        <v>34.51652267182445</v>
       </c>
       <c r="C25" t="n">
-        <v>19.66365092210691</v>
+        <v>19.66365092210685</v>
       </c>
       <c r="D25" t="n">
-        <v>5.237366133946637</v>
+        <v>5.23736613394658</v>
       </c>
       <c r="E25" t="n">
-        <v>5.163808186825747</v>
+        <v>5.16380818682569</v>
       </c>
       <c r="F25" t="n">
-        <v>6.913259606593016</v>
+        <v>6.913259606592959</v>
       </c>
       <c r="G25" t="n">
-        <v>16.98107614009555</v>
+        <v>16.9810761400955</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>38.86025257851833</v>
+        <v>38.86025257851827</v>
       </c>
       <c r="T25" t="n">
-        <v>81.31353591017452</v>
+        <v>81.31353591017475</v>
       </c>
       <c r="U25" t="n">
-        <v>133.7040232049245</v>
+        <v>133.7040232049239</v>
       </c>
       <c r="V25" t="n">
-        <v>114.4801358948203</v>
+        <v>114.4801358948202</v>
       </c>
       <c r="W25" t="n">
-        <v>131.6576822155704</v>
+        <v>131.6576822155703</v>
       </c>
       <c r="X25" t="n">
-        <v>82.90010316228296</v>
+        <v>82.9001031622829</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.04152473895931</v>
+        <v>72.04152473895925</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>253.8734912791975</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>93.63331792442048</v>
       </c>
       <c r="E26" t="n">
-        <v>253.8734912791975</v>
+        <v>253.8734912791973</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>253.8734912791973</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.8702333711151</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.8705808490046</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.1111302533739</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>251.8604066595973</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>225.6248557383173</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>36.36215351178002</v>
       </c>
       <c r="G27" t="n">
-        <v>31.13806998395044</v>
+        <v>31.13806998395045</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>84.77787515633423</v>
       </c>
       <c r="U27" t="n">
-        <v>121.0782421323185</v>
+        <v>121.0782421323183</v>
       </c>
       <c r="V27" t="n">
         <v>133.4892670687241</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.53060396046877</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.2514474225909</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>67.17788947547001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>68.92734089523728</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>76.13470933225916</v>
+        <v>37.43604313088315</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>176.4942171834645</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>193.6717635042147</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>144.9141844509272</v>
       </c>
       <c r="Y28" t="n">
         <v>134.0556060276036</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>181.2708833463246</v>
+      </c>
+      <c r="F29" t="n">
         <v>253.8734912791973</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>253.8734912791973</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>96.50064086534296</v>
+        <v>216.8702333711151</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.8705808490046</v>
       </c>
       <c r="T29" t="n">
         <v>127.1111302533739</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>166.2359258572932</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>253.8734912791973</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.45303655263221</v>
+        <v>63.45303655263223</v>
       </c>
       <c r="C30" t="n">
-        <v>62.32235359158919</v>
+        <v>62.32235359158921</v>
       </c>
       <c r="D30" t="n">
-        <v>41.96274316081495</v>
+        <v>41.96274316081497</v>
       </c>
       <c r="E30" t="n">
-        <v>48.25669143630164</v>
+        <v>48.25669143630165</v>
       </c>
       <c r="F30" t="n">
-        <v>36.36215351178001</v>
+        <v>36.36215351178002</v>
       </c>
       <c r="G30" t="n">
-        <v>31.13806998395043</v>
+        <v>31.13806998395044</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.11666095684058</v>
+        <v>30.11666095684053</v>
       </c>
       <c r="T30" t="n">
-        <v>84.77787515633422</v>
+        <v>84.77787515633393</v>
       </c>
       <c r="U30" t="n">
-        <v>121.0782421323182</v>
+        <v>121.0782421323183</v>
       </c>
       <c r="V30" t="n">
         <v>133.4892670687241</v>
@@ -2939,7 +2939,7 @@
         <v>100.588672329569</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.69574021132833</v>
+        <v>90.69574021132834</v>
       </c>
     </row>
     <row r="31">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.53060396046875</v>
+        <v>96.53060396046877</v>
       </c>
       <c r="C31" t="n">
-        <v>81.67773221075116</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.99515742873982</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>60.42116809025581</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>100.8743338671626</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>143.3276171988186</v>
       </c>
       <c r="U31" t="n">
-        <v>195.7181044935682</v>
+        <v>129.4195247912523</v>
       </c>
       <c r="V31" t="n">
         <v>176.4942171834645</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60674327097081</v>
+        <v>193.6717635042147</v>
       </c>
       <c r="X31" t="n">
         <v>144.9141844509272</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>227.7699237692773</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>123.5510143740487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>249.7153386286369</v>
+        <v>249.715338628637</v>
       </c>
       <c r="F32" t="n">
         <v>253.8734912791973</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>104.2189093952287</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.43602009056778</v>
+        <v>1.436020090567808</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3053371295247587</v>
+        <v>105.3929814909088</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.07255359301027</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>171.6032097002537</v>
+        <v>22.76085869426981</v>
       </c>
       <c r="U33" t="n">
-        <v>79.36718018709394</v>
+        <v>59.06122567025383</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>71.47225060665971</v>
       </c>
       <c r="W33" t="n">
-        <v>78.97372240206207</v>
+        <v>78.97372240206209</v>
       </c>
       <c r="X33" t="n">
-        <v>38.57165586750452</v>
+        <v>38.57165586750455</v>
       </c>
       <c r="Y33" t="n">
-        <v>28.6787237492639</v>
+        <v>28.67872374926392</v>
       </c>
     </row>
     <row r="34">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.51358749840432</v>
+        <v>34.51358749840435</v>
       </c>
       <c r="C34" t="n">
-        <v>19.66071574868673</v>
+        <v>19.66071574868675</v>
       </c>
       <c r="D34" t="n">
-        <v>5.234430960526453</v>
+        <v>5.234430960526481</v>
       </c>
       <c r="E34" t="n">
-        <v>5.160873013405563</v>
+        <v>5.160873013405592</v>
       </c>
       <c r="F34" t="n">
-        <v>6.910324433172832</v>
+        <v>6.91032443317286</v>
       </c>
       <c r="G34" t="n">
-        <v>16.97814096667538</v>
+        <v>16.9781409666754</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>38.85731740509815</v>
+        <v>38.85731740509818</v>
       </c>
       <c r="T34" t="n">
-        <v>81.3106007367542</v>
+        <v>81.31060073675422</v>
       </c>
       <c r="U34" t="n">
         <v>133.7010880315038</v>
@@ -3252,10 +3252,10 @@
         <v>131.6547470421502</v>
       </c>
       <c r="X34" t="n">
-        <v>82.89716798886278</v>
+        <v>82.8971679888628</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.03858956553913</v>
+        <v>72.03858956553916</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>168.7234915084537</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.0941137913095</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>104.2189093952287</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>190.9675658564909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.43602009056778</v>
+        <v>60.81452820041803</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3053371295247587</v>
+        <v>0.3053371295247871</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>91.27886361507437</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>116.94199550076</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>171.6032097002537</v>
       </c>
       <c r="U36" t="n">
-        <v>59.0612256702538</v>
+        <v>59.06122567025383</v>
       </c>
       <c r="V36" t="n">
-        <v>71.47225060665968</v>
+        <v>71.47225060665971</v>
       </c>
       <c r="W36" t="n">
-        <v>78.97372240206207</v>
+        <v>78.97372240206209</v>
       </c>
       <c r="X36" t="n">
-        <v>38.57165586750452</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.6787237492639</v>
+        <v>28.67872374926392</v>
       </c>
     </row>
     <row r="37">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.51358749840432</v>
+        <v>34.51358749840376</v>
       </c>
       <c r="C37" t="n">
-        <v>19.66071574868673</v>
+        <v>19.66071574868675</v>
       </c>
       <c r="D37" t="n">
-        <v>5.234430960526453</v>
+        <v>5.234430960526481</v>
       </c>
       <c r="E37" t="n">
-        <v>5.160873013405563</v>
+        <v>5.160873013405592</v>
       </c>
       <c r="F37" t="n">
-        <v>6.910324433172832</v>
+        <v>6.91032443317286</v>
       </c>
       <c r="G37" t="n">
-        <v>16.97814096667537</v>
+        <v>16.9781409666754</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>38.85731740509814</v>
+        <v>38.85731740509818</v>
       </c>
       <c r="T37" t="n">
-        <v>81.3106007367542</v>
+        <v>81.31060073675422</v>
       </c>
       <c r="U37" t="n">
-        <v>133.7010880315039</v>
+        <v>133.7010880315038</v>
       </c>
       <c r="V37" t="n">
         <v>114.4772007214001</v>
@@ -3489,10 +3489,10 @@
         <v>131.6547470421502</v>
       </c>
       <c r="X37" t="n">
-        <v>82.89716798886278</v>
+        <v>82.8971679888628</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.03858956553913</v>
+        <v>72.03858956553916</v>
       </c>
     </row>
     <row r="38">
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>168.7234915084537</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>64.50458211322506</v>
+      </c>
+      <c r="U38" t="n">
+        <v>104.2189093952287</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="D38" t="n">
+      <c r="X38" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.43602009056778</v>
+        <v>1.436020090567808</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3053371295247587</v>
+        <v>0.3053371295247871</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>129.458105988356</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>78.76275312747819</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>33.84678610207719</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.07255359301027</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>22.76085869426978</v>
+        <v>171.6032097002537</v>
       </c>
       <c r="U39" t="n">
-        <v>59.0612256702538</v>
+        <v>74.27789816308503</v>
       </c>
       <c r="V39" t="n">
-        <v>71.47225060665968</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="W39" t="n">
-        <v>78.97372240206207</v>
+        <v>78.97372240206209</v>
       </c>
       <c r="X39" t="n">
-        <v>38.57165586750452</v>
+        <v>38.57165586750455</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>28.67872374926392</v>
       </c>
     </row>
     <row r="40">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.51358749840432</v>
+        <v>34.51358749840435</v>
       </c>
       <c r="C40" t="n">
-        <v>19.66071574868673</v>
+        <v>19.66071574868675</v>
       </c>
       <c r="D40" t="n">
-        <v>5.234430960526453</v>
+        <v>5.234430960526481</v>
       </c>
       <c r="E40" t="n">
-        <v>5.160873013405563</v>
+        <v>5.160873013405592</v>
       </c>
       <c r="F40" t="n">
-        <v>6.910324433172832</v>
+        <v>6.91032443317286</v>
       </c>
       <c r="G40" t="n">
-        <v>16.97814096667538</v>
+        <v>16.9781409666754</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>38.85731740509815</v>
+        <v>38.85731740509817</v>
       </c>
       <c r="T40" t="n">
-        <v>81.3106007367542</v>
+        <v>81.3106007367537</v>
       </c>
       <c r="U40" t="n">
         <v>133.7010880315038</v>
@@ -3726,10 +3726,10 @@
         <v>131.6547470421502</v>
       </c>
       <c r="X40" t="n">
-        <v>82.89716798886278</v>
+        <v>82.8971679888628</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.03858956553893</v>
+        <v>72.03858956553916</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>38.94754361286441</v>
+      </c>
+      <c r="F41" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>191.5570975345752</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>147.4557922628437</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.26769924561003</v>
+        <v>21.26769924560998</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>108.5082486499793</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44.85015494923765</v>
+        <v>44.85015494923761</v>
       </c>
       <c r="C42" t="n">
-        <v>43.71947198819463</v>
+        <v>43.71947198819458</v>
       </c>
       <c r="D42" t="n">
-        <v>23.35986155742039</v>
+        <v>23.35986155742034</v>
       </c>
       <c r="E42" t="n">
-        <v>29.65380983290707</v>
+        <v>29.65380983290703</v>
       </c>
       <c r="F42" t="n">
-        <v>17.75927190838544</v>
+        <v>17.7592719083854</v>
       </c>
       <c r="G42" t="n">
-        <v>12.53518838055587</v>
+        <v>12.53518838055582</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>11.51377935344595</v>
+        <v>11.51377935344591</v>
       </c>
       <c r="T42" t="n">
         <v>66.17499355293961</v>
       </c>
       <c r="U42" t="n">
-        <v>102.475360528923</v>
+        <v>102.4753605289234</v>
       </c>
       <c r="V42" t="n">
-        <v>114.8863854653296</v>
+        <v>114.8863854653295</v>
       </c>
       <c r="W42" t="n">
         <v>122.3878572607319</v>
       </c>
       <c r="X42" t="n">
-        <v>81.98579072617439</v>
+        <v>81.98579072617434</v>
       </c>
       <c r="Y42" t="n">
-        <v>72.09285860793376</v>
+        <v>72.09285860793372</v>
       </c>
     </row>
     <row r="43">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.92772235707419</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>63.07485060735659</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>48.64856581919632</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>48.57500787207543</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.81828648686125</v>
+        <v>41.8182864868612</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.750003557917282</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.27145226376803</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>177.1152228901737</v>
+        <v>177.1152228901736</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>157.8913355800699</v>
       </c>
       <c r="W43" t="n">
-        <v>175.0688819008201</v>
+        <v>175.06888190082</v>
       </c>
       <c r="X43" t="n">
-        <v>28.89479391485372</v>
+        <v>126.3113028475326</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>61.43975084880471</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>82.8715968935409</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>191.5570975345752</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.26769924561004</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.5082486499794</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>147.6330442538986</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>191.5570975345752</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>168.7234915084537</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.85015494923766</v>
+        <v>44.85015494923761</v>
       </c>
       <c r="C45" t="n">
-        <v>43.71947198819464</v>
+        <v>43.71947198819458</v>
       </c>
       <c r="D45" t="n">
-        <v>23.3598615574204</v>
+        <v>23.35986155742034</v>
       </c>
       <c r="E45" t="n">
-        <v>29.65380983290709</v>
+        <v>29.65380983290703</v>
       </c>
       <c r="F45" t="n">
-        <v>17.75927190838546</v>
+        <v>17.7592719083854</v>
       </c>
       <c r="G45" t="n">
-        <v>12.53518838055589</v>
+        <v>12.53518838055583</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>11.51377935344597</v>
+        <v>11.51377935344591</v>
       </c>
       <c r="T45" t="n">
-        <v>66.17499355293967</v>
+        <v>66.1749935529394</v>
       </c>
       <c r="U45" t="n">
-        <v>102.4753605289237</v>
+        <v>102.4753605289236</v>
       </c>
       <c r="V45" t="n">
-        <v>114.8863854653288</v>
+        <v>114.8863854653295</v>
       </c>
       <c r="W45" t="n">
         <v>122.3878572607319</v>
       </c>
       <c r="X45" t="n">
-        <v>81.9857907261744</v>
+        <v>81.98579072617434</v>
       </c>
       <c r="Y45" t="n">
-        <v>72.09285860793378</v>
+        <v>72.09285860793372</v>
       </c>
     </row>
     <row r="46">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.9277223570742</v>
+        <v>77.92772235707415</v>
       </c>
       <c r="C46" t="n">
-        <v>63.07485060735661</v>
+        <v>63.07485060735655</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.64856581919628</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>48.57500787207539</v>
       </c>
       <c r="F46" t="n">
-        <v>50.32445929184271</v>
+        <v>50.32445929184266</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>60.3922758253452</v>
       </c>
       <c r="H46" t="n">
-        <v>41.81828648686126</v>
+        <v>41.8182864868612</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.750003557917282</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.27145226376803</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>124.7247355954241</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.8913355800699</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>29.90921750557345</v>
+        <v>175.06888190082</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>126.3113028475326</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.452724424209</v>
+        <v>47.50342754615798</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>402.3086032261502</v>
+        <v>572.7363724266088</v>
       </c>
       <c r="C11" t="n">
-        <v>208.8165855144581</v>
+        <v>572.7363724266088</v>
       </c>
       <c r="D11" t="n">
-        <v>208.8165855144581</v>
+        <v>379.2443547149167</v>
       </c>
       <c r="E11" t="n">
-        <v>15.32456780276601</v>
+        <v>379.2443547149167</v>
       </c>
       <c r="F11" t="n">
-        <v>15.32456780276601</v>
+        <v>379.2443547149167</v>
       </c>
       <c r="G11" t="n">
-        <v>15.32456780276601</v>
+        <v>208.8165855144582</v>
       </c>
       <c r="H11" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="I11" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="J11" t="n">
-        <v>39.50236796363049</v>
+        <v>39.5023679636306</v>
       </c>
       <c r="K11" t="n">
-        <v>108.7186598165204</v>
+        <v>108.7186598165206</v>
       </c>
       <c r="L11" t="n">
-        <v>218.5737355908893</v>
+        <v>218.5737355908896</v>
       </c>
       <c r="M11" t="n">
-        <v>361.3938085355539</v>
+        <v>361.3938085355544</v>
       </c>
       <c r="N11" t="n">
-        <v>509.5238350204939</v>
+        <v>509.5238350204946</v>
       </c>
       <c r="O11" t="n">
-        <v>640.7308987463639</v>
+        <v>640.7308987463646</v>
       </c>
       <c r="P11" t="n">
-        <v>730.2874414953696</v>
+        <v>730.2874414953698</v>
       </c>
       <c r="Q11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="R11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="S11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="T11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="U11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="V11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="W11" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="X11" t="n">
-        <v>766.2283901383007</v>
+        <v>572.7363724266088</v>
       </c>
       <c r="Y11" t="n">
-        <v>572.7363724266086</v>
+        <v>572.7363724266088</v>
       </c>
     </row>
     <row r="12">
@@ -5102,70 +5102,70 @@
         <v>99.47419576162315</v>
       </c>
       <c r="D12" t="n">
-        <v>75.87837600665313</v>
+        <v>75.87837600665308</v>
       </c>
       <c r="E12" t="n">
-        <v>45.92503274109045</v>
+        <v>45.92503274109042</v>
       </c>
       <c r="F12" t="n">
-        <v>27.98637424777188</v>
+        <v>27.98637424777182</v>
       </c>
       <c r="G12" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="H12" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="I12" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="J12" t="n">
-        <v>17.49309942201871</v>
+        <v>103.4241901091449</v>
       </c>
       <c r="K12" t="n">
-        <v>72.00010142915703</v>
+        <v>157.9311921162833</v>
       </c>
       <c r="L12" t="n">
-        <v>175.4011439604452</v>
+        <v>261.3322346475715</v>
       </c>
       <c r="M12" t="n">
-        <v>308.6472477943361</v>
+        <v>394.5783384814623</v>
       </c>
       <c r="N12" t="n">
-        <v>454.7855987057895</v>
+        <v>540.7166893929158</v>
       </c>
       <c r="O12" t="n">
-        <v>574.0307724663401</v>
+        <v>659.9618631534664</v>
       </c>
       <c r="P12" t="n">
-        <v>743.100134878399</v>
+        <v>743.1001348783992</v>
       </c>
       <c r="Q12" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="R12" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="S12" t="n">
-        <v>754.5983099833048</v>
+        <v>754.5983099833051</v>
       </c>
       <c r="T12" t="n">
-        <v>687.7548821520528</v>
+        <v>687.7548821520529</v>
       </c>
       <c r="U12" t="n">
-        <v>584.2444169713217</v>
+        <v>584.2444169713219</v>
       </c>
       <c r="V12" t="n">
-        <v>468.1975629659384</v>
+        <v>468.1975629659386</v>
       </c>
       <c r="W12" t="n">
-        <v>344.5734647227749</v>
+        <v>344.573464722775</v>
       </c>
       <c r="X12" t="n">
-        <v>261.7595346963362</v>
+        <v>261.7595346963363</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.938465395393</v>
+        <v>188.9384653953931</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.7228721756871</v>
+        <v>331.3179475024401</v>
       </c>
       <c r="C13" t="n">
-        <v>119.0109018652259</v>
+        <v>267.6059771919789</v>
       </c>
       <c r="D13" t="n">
-        <v>119.0109018652259</v>
+        <v>218.4660117180433</v>
       </c>
       <c r="E13" t="n">
-        <v>69.94523734797805</v>
+        <v>169.4003472007954</v>
       </c>
       <c r="F13" t="n">
-        <v>19.11245018450063</v>
+        <v>118.567560037318</v>
       </c>
       <c r="G13" t="n">
-        <v>19.11245018450063</v>
+        <v>57.56526122383796</v>
       </c>
       <c r="H13" t="n">
-        <v>19.11245018450063</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="I13" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="J13" t="n">
-        <v>90.54318816490465</v>
+        <v>90.54318816490462</v>
       </c>
       <c r="K13" t="n">
-        <v>198.2795706680867</v>
+        <v>198.2795706680866</v>
       </c>
       <c r="L13" t="n">
-        <v>326.395049612054</v>
+        <v>326.3950496120539</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8337393688936</v>
+        <v>457.9189979052198</v>
       </c>
       <c r="N13" t="n">
-        <v>523.8195128439633</v>
+        <v>489.5308373944484</v>
       </c>
       <c r="O13" t="n">
-        <v>644.1885893261415</v>
+        <v>591.4187421831519</v>
       </c>
       <c r="P13" t="n">
-        <v>749.8588497264399</v>
+        <v>697.0890025834503</v>
       </c>
       <c r="Q13" t="n">
-        <v>749.8588497264399</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="R13" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="S13" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="T13" t="n">
-        <v>697.9505897222159</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="U13" t="n">
-        <v>519.046324176586</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="V13" t="n">
-        <v>359.5601266209599</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="W13" t="n">
-        <v>182.7228721756871</v>
+        <v>589.3911356930282</v>
       </c>
       <c r="X13" t="n">
-        <v>182.7228721756871</v>
+        <v>526.6517321299989</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.7228721756871</v>
+        <v>410.0328185701918</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>572.7363724266086</v>
+        <v>208.8165855144582</v>
       </c>
       <c r="C14" t="n">
-        <v>379.2443547149164</v>
+        <v>208.8165855144582</v>
       </c>
       <c r="D14" t="n">
-        <v>379.2443547149164</v>
+        <v>208.8165855144582</v>
       </c>
       <c r="E14" t="n">
-        <v>379.2443547149164</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2443547149164</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="G14" t="n">
-        <v>185.7523370032243</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="H14" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="I14" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="J14" t="n">
-        <v>39.50236796363043</v>
+        <v>39.50236796363046</v>
       </c>
       <c r="K14" t="n">
         <v>108.7186598165204</v>
@@ -5287,43 +5287,43 @@
         <v>218.5737355908893</v>
       </c>
       <c r="M14" t="n">
-        <v>361.3938085355542</v>
+        <v>361.3938085355541</v>
       </c>
       <c r="N14" t="n">
-        <v>509.5238350204943</v>
+        <v>509.5238350204942</v>
       </c>
       <c r="O14" t="n">
-        <v>640.7308987463643</v>
+        <v>640.7308987463641</v>
       </c>
       <c r="P14" t="n">
-        <v>730.2874414953695</v>
+        <v>730.2874414953696</v>
       </c>
       <c r="Q14" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383008</v>
       </c>
       <c r="R14" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="S14" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="T14" t="n">
-        <v>766.2283901383007</v>
+        <v>656.6240985726653</v>
       </c>
       <c r="U14" t="n">
-        <v>766.2283901383007</v>
+        <v>507.4998114475152</v>
       </c>
       <c r="V14" t="n">
-        <v>766.2283901383007</v>
+        <v>507.4998114475152</v>
       </c>
       <c r="W14" t="n">
-        <v>572.7363724266086</v>
+        <v>507.4998114475152</v>
       </c>
       <c r="X14" t="n">
-        <v>572.7363724266086</v>
+        <v>507.4998114475152</v>
       </c>
       <c r="Y14" t="n">
-        <v>572.7363724266086</v>
+        <v>314.007793735823</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.6352785779813</v>
+        <v>143.6352785779814</v>
       </c>
       <c r="C15" t="n">
-        <v>99.47419576162314</v>
+        <v>99.47419576162325</v>
       </c>
       <c r="D15" t="n">
-        <v>75.8783760066531</v>
+        <v>75.87837600665318</v>
       </c>
       <c r="E15" t="n">
-        <v>45.92503274109046</v>
+        <v>45.92503274109052</v>
       </c>
       <c r="F15" t="n">
-        <v>27.98637424777189</v>
+        <v>27.98637424777192</v>
       </c>
       <c r="G15" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="H15" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="I15" t="n">
-        <v>15.32456780276601</v>
+        <v>86.19018354755056</v>
       </c>
       <c r="J15" t="n">
-        <v>17.49309942201873</v>
+        <v>88.35871516680328</v>
       </c>
       <c r="K15" t="n">
-        <v>72.00010142915707</v>
+        <v>142.8657171739416</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3322346475712</v>
+        <v>246.2667597052298</v>
       </c>
       <c r="M15" t="n">
-        <v>394.5783384814621</v>
+        <v>379.5128635391206</v>
       </c>
       <c r="N15" t="n">
-        <v>540.7166893929156</v>
+        <v>525.6512144505741</v>
       </c>
       <c r="O15" t="n">
-        <v>659.9618631534662</v>
+        <v>644.8963882111248</v>
       </c>
       <c r="P15" t="n">
-        <v>743.100134878399</v>
+        <v>728.0346599360576</v>
       </c>
       <c r="Q15" t="n">
-        <v>766.2283901383007</v>
+        <v>751.1629151959593</v>
       </c>
       <c r="R15" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383011</v>
       </c>
       <c r="S15" t="n">
-        <v>754.5983099833048</v>
+        <v>754.5983099833052</v>
       </c>
       <c r="T15" t="n">
-        <v>687.7548821520527</v>
+        <v>687.754882152053</v>
       </c>
       <c r="U15" t="n">
-        <v>584.2444169713217</v>
+        <v>584.244416971322</v>
       </c>
       <c r="V15" t="n">
-        <v>468.1975629659383</v>
+        <v>468.1975629659386</v>
       </c>
       <c r="W15" t="n">
-        <v>344.5734647227748</v>
+        <v>344.5734647227751</v>
       </c>
       <c r="X15" t="n">
-        <v>261.7595346963361</v>
+        <v>261.7595346963363</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.938465395393</v>
+        <v>188.9384653953932</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.1334550298772</v>
+        <v>204.1848244861793</v>
       </c>
       <c r="C16" t="n">
-        <v>217.1334550298772</v>
+        <v>140.4728541757181</v>
       </c>
       <c r="D16" t="n">
-        <v>167.9934895559416</v>
+        <v>140.4728541757181</v>
       </c>
       <c r="E16" t="n">
-        <v>167.9934895559416</v>
+        <v>140.4728541757181</v>
       </c>
       <c r="F16" t="n">
-        <v>117.1607023924642</v>
+        <v>89.64006701224066</v>
       </c>
       <c r="G16" t="n">
-        <v>57.56526122383792</v>
+        <v>28.63776819876065</v>
       </c>
       <c r="H16" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="I16" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276602</v>
       </c>
       <c r="J16" t="n">
-        <v>90.54318816490465</v>
+        <v>90.54318816490462</v>
       </c>
       <c r="K16" t="n">
-        <v>198.2795706680867</v>
+        <v>198.2795706680866</v>
       </c>
       <c r="L16" t="n">
-        <v>291.544337506718</v>
+        <v>291.5443375067183</v>
       </c>
       <c r="M16" t="n">
-        <v>423.0682857998838</v>
+        <v>423.0682857998841</v>
       </c>
       <c r="N16" t="n">
-        <v>559.0540592749535</v>
+        <v>454.6801252891128</v>
       </c>
       <c r="O16" t="n">
-        <v>575.0492017712908</v>
+        <v>575.049201771291</v>
       </c>
       <c r="P16" t="n">
-        <v>680.7194621715892</v>
+        <v>680.7194621715894</v>
       </c>
       <c r="Q16" t="n">
-        <v>749.8588497264399</v>
+        <v>749.8588497264401</v>
       </c>
       <c r="R16" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="S16" t="n">
-        <v>766.2283901383007</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="T16" t="n">
-        <v>640.2438087287815</v>
+        <v>766.2283901383009</v>
       </c>
       <c r="U16" t="n">
-        <v>461.3395431831515</v>
+        <v>587.3241245926711</v>
       </c>
       <c r="V16" t="n">
-        <v>461.3395431831515</v>
+        <v>587.3241245926711</v>
       </c>
       <c r="W16" t="n">
-        <v>461.3395431831515</v>
+        <v>410.4868701473983</v>
       </c>
       <c r="X16" t="n">
-        <v>333.7523685896842</v>
+        <v>282.899695553931</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1334550298772</v>
+        <v>282.899695553931</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>595.8006209378424</v>
+      </c>
+      <c r="C17" t="n">
+        <v>595.8006209378424</v>
+      </c>
+      <c r="D17" t="n">
+        <v>595.8006209378424</v>
+      </c>
+      <c r="E17" t="n">
+        <v>402.3086032261502</v>
+      </c>
+      <c r="F17" t="n">
         <v>208.8165855144581</v>
-      </c>
-      <c r="C17" t="n">
-        <v>208.8165855144581</v>
-      </c>
-      <c r="D17" t="n">
-        <v>208.8165855144581</v>
-      </c>
-      <c r="E17" t="n">
-        <v>208.8165855144581</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15.32456780276601</v>
       </c>
       <c r="G17" t="n">
         <v>15.32456780276601</v>
@@ -5524,13 +5524,13 @@
         <v>218.5737355908893</v>
       </c>
       <c r="M17" t="n">
-        <v>361.393808535554</v>
+        <v>361.3938085355541</v>
       </c>
       <c r="N17" t="n">
-        <v>509.5238350204941</v>
+        <v>509.5238350204942</v>
       </c>
       <c r="O17" t="n">
-        <v>640.7308987463641</v>
+        <v>640.7308987463639</v>
       </c>
       <c r="P17" t="n">
         <v>730.2874414953695</v>
@@ -5548,19 +5548,19 @@
         <v>700.4737952244324</v>
       </c>
       <c r="U17" t="n">
-        <v>700.4737952244324</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="V17" t="n">
-        <v>508.7098302032676</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="W17" t="n">
-        <v>315.2178124915755</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="X17" t="n">
-        <v>208.8165855144581</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="Y17" t="n">
-        <v>208.8165855144581</v>
+        <v>595.8006209378424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>258.1589168296769</v>
+        <v>165.9787982426738</v>
       </c>
       <c r="C18" t="n">
-        <v>257.847530665086</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="D18" t="n">
-        <v>231.3293951842805</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="E18" t="n">
-        <v>94.88290429516823</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="F18" t="n">
-        <v>94.88290429516823</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="G18" t="n">
-        <v>94.88290429516823</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="H18" t="n">
         <v>15.32456780276601</v>
@@ -5621,25 +5621,25 @@
         <v>680.2972994511747</v>
       </c>
       <c r="S18" t="n">
-        <v>562.1740716726292</v>
+        <v>680.2972994511747</v>
       </c>
       <c r="T18" t="n">
-        <v>539.1803404931444</v>
+        <v>657.30356827169</v>
       </c>
       <c r="U18" t="n">
-        <v>479.5195719641808</v>
+        <v>463.8115505599978</v>
       </c>
       <c r="V18" t="n">
-        <v>407.3224146105647</v>
+        <v>391.6143932063819</v>
       </c>
       <c r="W18" t="n">
-        <v>327.5480130191685</v>
+        <v>235.3678944321653</v>
       </c>
       <c r="X18" t="n">
-        <v>288.5837796444971</v>
+        <v>196.4036610574939</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.6124069953212</v>
+        <v>167.4322884083182</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82877082253154</v>
+        <v>69.82877082253125</v>
       </c>
       <c r="C19" t="n">
-        <v>49.96649716383769</v>
+        <v>49.96649716383746</v>
       </c>
       <c r="D19" t="n">
-        <v>44.67622834166937</v>
+        <v>44.67622834166919</v>
       </c>
       <c r="E19" t="n">
-        <v>39.46026047618882</v>
+        <v>39.4602604761887</v>
       </c>
       <c r="F19" t="n">
-        <v>32.4771699644787</v>
+        <v>32.47716996447864</v>
       </c>
       <c r="G19" t="n">
         <v>15.32456780276601</v>
       </c>
       <c r="H19" t="n">
-        <v>16.90155186917056</v>
+        <v>16.90155186917062</v>
       </c>
       <c r="I19" t="n">
-        <v>56.1661360352296</v>
+        <v>56.16613603522971</v>
       </c>
       <c r="J19" t="n">
-        <v>56.1661360352296</v>
+        <v>174.3618440857655</v>
       </c>
       <c r="K19" t="n">
-        <v>59.52858455257067</v>
+        <v>325.0753142773448</v>
       </c>
       <c r="L19" t="n">
-        <v>83.27012951069699</v>
+        <v>496.1678809097093</v>
       </c>
       <c r="M19" t="n">
-        <v>110.4201438180219</v>
+        <v>670.6689168912724</v>
       </c>
       <c r="N19" t="n">
-        <v>289.3830049814887</v>
+        <v>702.2807563805011</v>
       </c>
       <c r="O19" t="n">
-        <v>452.7291691520641</v>
+        <v>718.2758988768384</v>
       </c>
       <c r="P19" t="n">
-        <v>601.3765172407595</v>
+        <v>719.5722252912958</v>
       </c>
       <c r="Q19" t="n">
-        <v>706.8817620380427</v>
+        <v>719.5722252912958</v>
       </c>
       <c r="R19" t="n">
         <v>766.2283901383007</v>
       </c>
       <c r="S19" t="n">
-        <v>726.975609755959</v>
+        <v>727.0141524372337</v>
       </c>
       <c r="T19" t="n">
-        <v>644.8407249982071</v>
+        <v>644.8792676794819</v>
       </c>
       <c r="U19" t="n">
-        <v>509.7861561043445</v>
+        <v>509.8246987856193</v>
       </c>
       <c r="V19" t="n">
-        <v>394.188197881761</v>
+        <v>394.1881978817605</v>
       </c>
       <c r="W19" t="n">
-        <v>261.2006400882556</v>
+        <v>261.2006400882551</v>
       </c>
       <c r="X19" t="n">
-        <v>177.4631621465556</v>
+        <v>177.4631621465552</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.6939452385159</v>
+        <v>104.6939452385155</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.7257947798836</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="C20" t="n">
-        <v>121.7257947798836</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="D20" t="n">
-        <v>121.7257947798836</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="E20" t="n">
-        <v>15.32456780276602</v>
+        <v>208.8165855144581</v>
       </c>
       <c r="F20" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="G20" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="H20" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="I20" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="J20" t="n">
-        <v>39.5023679636306</v>
+        <v>39.50236796363043</v>
       </c>
       <c r="K20" t="n">
-        <v>108.7186598165206</v>
+        <v>108.7186598165204</v>
       </c>
       <c r="L20" t="n">
-        <v>218.5737355908894</v>
+        <v>218.5737355908893</v>
       </c>
       <c r="M20" t="n">
-        <v>361.3938085355543</v>
+        <v>361.3938085355542</v>
       </c>
       <c r="N20" t="n">
-        <v>509.5238350204943</v>
+        <v>509.5238350204941</v>
       </c>
       <c r="O20" t="n">
-        <v>640.7308987463642</v>
+        <v>640.7308987463641</v>
       </c>
       <c r="P20" t="n">
-        <v>730.2874414953698</v>
+        <v>730.2874414953695</v>
       </c>
       <c r="Q20" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="R20" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="S20" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="T20" t="n">
-        <v>700.4737952244326</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="U20" t="n">
-        <v>700.4737952244326</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="V20" t="n">
-        <v>508.7098302032679</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="W20" t="n">
-        <v>315.2178124915757</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="X20" t="n">
-        <v>121.7257947798836</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="Y20" t="n">
-        <v>121.7257947798836</v>
+        <v>595.8006209378424</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>299.068548244813</v>
+        <v>49.82462679773781</v>
       </c>
       <c r="C21" t="n">
-        <v>298.7571620802222</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="D21" t="n">
-        <v>168.6681947017025</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="E21" t="n">
-        <v>168.6681947017025</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="F21" t="n">
-        <v>168.6681947017025</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="G21" t="n">
-        <v>49.51324063314702</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="H21" t="n">
-        <v>49.51324063314702</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="I21" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="J21" t="n">
         <v>17.49309942201873</v>
@@ -5855,28 +5855,28 @@
         <v>680.2972994511747</v>
       </c>
       <c r="R21" t="n">
-        <v>680.2972994511747</v>
+        <v>640.8300735996492</v>
       </c>
       <c r="S21" t="n">
-        <v>680.2972994511747</v>
+        <v>640.8300735996492</v>
       </c>
       <c r="T21" t="n">
-        <v>657.3035682716899</v>
+        <v>467.4934981448474</v>
       </c>
       <c r="U21" t="n">
-        <v>597.6427997427262</v>
+        <v>274.0014804331553</v>
       </c>
       <c r="V21" t="n">
-        <v>525.4456423891102</v>
+        <v>198.9881245786254</v>
       </c>
       <c r="W21" t="n">
-        <v>445.6712407977139</v>
+        <v>119.2137229872293</v>
       </c>
       <c r="X21" t="n">
-        <v>406.7070074230425</v>
+        <v>80.24948961255794</v>
       </c>
       <c r="Y21" t="n">
-        <v>377.7356347738666</v>
+        <v>51.27811696338216</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.82877082253154</v>
+        <v>69.79022814125656</v>
       </c>
       <c r="C22" t="n">
-        <v>49.96649716383769</v>
+        <v>49.92795448256277</v>
       </c>
       <c r="D22" t="n">
-        <v>44.67622834166937</v>
+        <v>44.67622834166919</v>
       </c>
       <c r="E22" t="n">
-        <v>39.46026047618882</v>
+        <v>39.4602604761887</v>
       </c>
       <c r="F22" t="n">
-        <v>32.4771699644787</v>
+        <v>32.47716996447864</v>
       </c>
       <c r="G22" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="H22" t="n">
-        <v>16.90155186917057</v>
+        <v>16.90155186917062</v>
       </c>
       <c r="I22" t="n">
-        <v>56.16613603522961</v>
+        <v>56.16613603522971</v>
       </c>
       <c r="J22" t="n">
-        <v>174.3618440857654</v>
+        <v>174.3618440857655</v>
       </c>
       <c r="K22" t="n">
-        <v>200.2683757808443</v>
+        <v>325.0753142773448</v>
       </c>
       <c r="L22" t="n">
-        <v>224.0099207389707</v>
+        <v>496.1678809097093</v>
       </c>
       <c r="M22" t="n">
-        <v>251.1599350462955</v>
+        <v>657.9784536380192</v>
       </c>
       <c r="N22" t="n">
-        <v>282.7717745355242</v>
+        <v>689.5902931272479</v>
       </c>
       <c r="O22" t="n">
-        <v>446.1179387060996</v>
+        <v>705.5854356235852</v>
       </c>
       <c r="P22" t="n">
-        <v>594.7652867947951</v>
+        <v>706.8817620380427</v>
       </c>
       <c r="Q22" t="n">
-        <v>706.8817620380429</v>
+        <v>706.8817620380427</v>
       </c>
       <c r="R22" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="S22" t="n">
-        <v>726.9756097559592</v>
+        <v>726.975609755959</v>
       </c>
       <c r="T22" t="n">
-        <v>644.8792676794825</v>
+        <v>644.8407249982072</v>
       </c>
       <c r="U22" t="n">
-        <v>509.8246987856199</v>
+        <v>509.7861561043446</v>
       </c>
       <c r="V22" t="n">
-        <v>394.188197881761</v>
+        <v>394.1496552004858</v>
       </c>
       <c r="W22" t="n">
-        <v>261.2006400882556</v>
+        <v>261.1620974069804</v>
       </c>
       <c r="X22" t="n">
-        <v>177.4631621465556</v>
+        <v>177.4246194652805</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.6939452385159</v>
+        <v>104.6554025572408</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>402.3292530774463</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="C23" t="n">
-        <v>208.8273037327722</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="D23" t="n">
-        <v>208.8273037327722</v>
+        <v>752.2515580609786</v>
       </c>
       <c r="E23" t="n">
-        <v>208.8273037327722</v>
+        <v>558.7496087163049</v>
       </c>
       <c r="F23" t="n">
-        <v>15.32535438809818</v>
+        <v>365.2476593716312</v>
       </c>
       <c r="G23" t="n">
-        <v>15.32535438809818</v>
+        <v>171.7457100269575</v>
       </c>
       <c r="H23" t="n">
-        <v>15.32535438809818</v>
+        <v>15.32535438809816</v>
       </c>
       <c r="I23" t="n">
-        <v>15.3638970693743</v>
+        <v>15.32535438809816</v>
       </c>
       <c r="J23" t="n">
-        <v>39.54169723023874</v>
+        <v>39.5031545489626</v>
       </c>
       <c r="K23" t="n">
-        <v>108.7579890831287</v>
+        <v>108.7194464018526</v>
       </c>
       <c r="L23" t="n">
-        <v>218.6130648574976</v>
+        <v>218.5745221762214</v>
       </c>
       <c r="M23" t="n">
-        <v>361.4331378021624</v>
+        <v>361.3945951208863</v>
       </c>
       <c r="N23" t="n">
-        <v>509.5631642871024</v>
+        <v>509.5246216058264</v>
       </c>
       <c r="O23" t="n">
-        <v>640.7702280129724</v>
+        <v>640.7316853316963</v>
       </c>
       <c r="P23" t="n">
-        <v>730.326770761978</v>
+        <v>730.2882280807019</v>
       </c>
       <c r="Q23" t="n">
-        <v>766.2677194049091</v>
+        <v>766.229176723633</v>
       </c>
       <c r="R23" t="n">
-        <v>766.2677194049091</v>
+        <v>766.229176723633</v>
       </c>
       <c r="S23" t="n">
-        <v>766.2677194049091</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="T23" t="n">
-        <v>766.2677194049091</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="U23" t="n">
-        <v>660.9931289315264</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="V23" t="n">
-        <v>660.9931289315264</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="W23" t="n">
-        <v>595.8312024221203</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="X23" t="n">
-        <v>595.8312024221203</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="Y23" t="n">
-        <v>595.8312024221203</v>
+        <v>766.2677194049078</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>225.9400869182376</v>
+        <v>49.82541338306995</v>
       </c>
       <c r="C24" t="n">
-        <v>151.7718452772105</v>
+        <v>49.51402721847916</v>
       </c>
       <c r="D24" t="n">
-        <v>151.7718452772105</v>
+        <v>49.51402721847916</v>
       </c>
       <c r="E24" t="n">
-        <v>15.32535438809818</v>
+        <v>49.51402721847916</v>
       </c>
       <c r="F24" t="n">
-        <v>15.32535438809818</v>
+        <v>49.51402721847916</v>
       </c>
       <c r="G24" t="n">
-        <v>15.32535438809818</v>
+        <v>49.51402721847916</v>
       </c>
       <c r="H24" t="n">
-        <v>15.32535438809818</v>
+        <v>49.51402721847916</v>
       </c>
       <c r="I24" t="n">
-        <v>15.32535438809818</v>
+        <v>15.32535438809816</v>
       </c>
       <c r="J24" t="n">
-        <v>17.49388600735089</v>
+        <v>17.49388600735087</v>
       </c>
       <c r="K24" t="n">
-        <v>72.00088801448923</v>
+        <v>72.00088801448921</v>
       </c>
       <c r="L24" t="n">
         <v>175.4019305457774</v>
@@ -6092,28 +6092,28 @@
         <v>680.2980860365069</v>
       </c>
       <c r="R24" t="n">
-        <v>680.2980860365069</v>
+        <v>640.8308601849814</v>
       </c>
       <c r="S24" t="n">
-        <v>680.2980860365069</v>
+        <v>640.8308601849814</v>
       </c>
       <c r="T24" t="n">
-        <v>506.9615105817052</v>
+        <v>617.8371290054966</v>
       </c>
       <c r="U24" t="n">
-        <v>447.3007420527416</v>
+        <v>506.2184082619088</v>
       </c>
       <c r="V24" t="n">
-        <v>375.1035846991255</v>
+        <v>312.7164589172352</v>
       </c>
       <c r="W24" t="n">
-        <v>295.3291831077293</v>
+        <v>119.2145095725614</v>
       </c>
       <c r="X24" t="n">
-        <v>256.3649497330579</v>
+        <v>80.25027619789009</v>
       </c>
       <c r="Y24" t="n">
-        <v>227.393577083882</v>
+        <v>51.2789035487143</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.82955740786358</v>
+        <v>69.82955740786315</v>
       </c>
       <c r="C25" t="n">
-        <v>49.96728374916972</v>
+        <v>49.96728374916938</v>
       </c>
       <c r="D25" t="n">
-        <v>44.67701492700144</v>
+        <v>44.67701492700134</v>
       </c>
       <c r="E25" t="n">
-        <v>39.46104706152096</v>
+        <v>39.46104706152084</v>
       </c>
       <c r="F25" t="n">
-        <v>32.47795654981087</v>
+        <v>32.47795654981078</v>
       </c>
       <c r="G25" t="n">
-        <v>15.32535438809818</v>
+        <v>15.32535438809816</v>
       </c>
       <c r="H25" t="n">
-        <v>16.90233845450273</v>
+        <v>16.90233845450276</v>
       </c>
       <c r="I25" t="n">
-        <v>56.16692262056177</v>
+        <v>56.16692262056186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.3626306710975</v>
+        <v>174.3626306710977</v>
       </c>
       <c r="K25" t="n">
-        <v>177.7250791884386</v>
+        <v>177.7250791884387</v>
       </c>
       <c r="L25" t="n">
-        <v>201.4666241465649</v>
+        <v>201.4666241465651</v>
       </c>
       <c r="M25" t="n">
-        <v>228.6166384538898</v>
+        <v>228.6166384538899</v>
       </c>
       <c r="N25" t="n">
-        <v>407.5794996173566</v>
+        <v>282.8111038021308</v>
       </c>
       <c r="O25" t="n">
-        <v>570.9256637879321</v>
+        <v>446.1572679727063</v>
       </c>
       <c r="P25" t="n">
-        <v>594.8046160614033</v>
+        <v>594.8046160614018</v>
       </c>
       <c r="Q25" t="n">
-        <v>706.9210913046511</v>
+        <v>706.9210913046497</v>
       </c>
       <c r="R25" t="n">
-        <v>766.2677194049091</v>
+        <v>766.2677194049078</v>
       </c>
       <c r="S25" t="n">
-        <v>727.0149390225674</v>
+        <v>727.0149390225661</v>
       </c>
       <c r="T25" t="n">
-        <v>644.8800542648154</v>
+        <v>644.8800542648138</v>
       </c>
       <c r="U25" t="n">
-        <v>509.8254853709523</v>
+        <v>509.825485370951</v>
       </c>
       <c r="V25" t="n">
-        <v>394.1889844670932</v>
+        <v>394.1889844670924</v>
       </c>
       <c r="W25" t="n">
-        <v>261.2014266735877</v>
+        <v>261.2014266735871</v>
       </c>
       <c r="X25" t="n">
-        <v>177.4639487318877</v>
+        <v>177.4639487318871</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.6947318238479</v>
+        <v>104.6947318238474</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.7477492813232</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="C26" t="n">
-        <v>276.7477492813232</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="D26" t="n">
-        <v>276.7477492813232</v>
+        <v>752.2464610493153</v>
       </c>
       <c r="E26" t="n">
-        <v>20.3098793023358</v>
+        <v>495.8085910703281</v>
       </c>
       <c r="F26" t="n">
-        <v>20.3098793023358</v>
+        <v>239.370721091341</v>
       </c>
       <c r="G26" t="n">
-        <v>20.3098793023358</v>
+        <v>239.370721091341</v>
       </c>
       <c r="H26" t="n">
-        <v>20.3098793023358</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I26" t="n">
-        <v>34.58470156746384</v>
+        <v>34.58470156746382</v>
       </c>
       <c r="J26" t="n">
         <v>58.76250172832826</v>
       </c>
       <c r="K26" t="n">
-        <v>127.9787935812182</v>
+        <v>186.0700723980479</v>
       </c>
       <c r="L26" t="n">
-        <v>323.7909505540674</v>
+        <v>381.8822293708971</v>
       </c>
       <c r="M26" t="n">
-        <v>552.5681046972126</v>
+        <v>610.6593835140422</v>
       </c>
       <c r="N26" t="n">
-        <v>700.6981311821526</v>
+        <v>758.7894099989824</v>
       </c>
       <c r="O26" t="n">
-        <v>831.9051949080226</v>
+        <v>889.9964737248524</v>
       </c>
       <c r="P26" t="n">
-        <v>928.2053708543912</v>
+        <v>979.5530164738578</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.1463194973227</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="R26" t="n">
-        <v>1015.49396511679</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="S26" t="n">
-        <v>1015.49396511679</v>
+        <v>975.2206511278955</v>
       </c>
       <c r="T26" t="n">
-        <v>1015.49396511679</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="U26" t="n">
-        <v>1015.49396511679</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="V26" t="n">
-        <v>761.0895139454797</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="W26" t="n">
-        <v>761.0895139454797</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="X26" t="n">
-        <v>533.1856192603107</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="Y26" t="n">
-        <v>533.1856192603107</v>
+        <v>846.8255700638814</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>242.5745375694432</v>
+        <v>242.5745375694423</v>
       </c>
       <c r="C27" t="n">
-        <v>179.6226652547066</v>
+        <v>179.6226652547057</v>
       </c>
       <c r="D27" t="n">
-        <v>137.2360560013582</v>
+        <v>137.2360560013572</v>
       </c>
       <c r="E27" t="n">
-        <v>88.49192323741708</v>
+        <v>88.49192323741613</v>
       </c>
       <c r="F27" t="n">
-        <v>51.76247524572009</v>
+        <v>51.76247524572008</v>
       </c>
       <c r="G27" t="n">
-        <v>20.3098793023358</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H27" t="n">
-        <v>28.29183490461268</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I27" t="n">
-        <v>80.74059786203688</v>
+        <v>72.75864225975965</v>
       </c>
       <c r="J27" t="n">
-        <v>82.9091294812896</v>
+        <v>74.92717387901237</v>
       </c>
       <c r="K27" t="n">
-        <v>223.3732126869082</v>
+        <v>215.391257084631</v>
       </c>
       <c r="L27" t="n">
-        <v>377.3654752861801</v>
+        <v>318.7922996159192</v>
       </c>
       <c r="M27" t="n">
-        <v>510.611579120071</v>
+        <v>452.0384034498101</v>
       </c>
       <c r="N27" t="n">
-        <v>656.7499300315244</v>
+        <v>598.1767543612635</v>
       </c>
       <c r="O27" t="n">
-        <v>775.995103792075</v>
+        <v>775.995103792074</v>
       </c>
       <c r="P27" t="n">
-        <v>945.0904567154881</v>
+        <v>945.0904567154871</v>
       </c>
       <c r="Q27" t="n">
-        <v>968.2187119753899</v>
+        <v>968.2187119753888</v>
       </c>
       <c r="R27" t="n">
-        <v>1015.49396511679</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="S27" t="n">
-        <v>985.0730954634157</v>
+        <v>985.0730954634147</v>
       </c>
       <c r="T27" t="n">
-        <v>899.4388781337851</v>
+        <v>899.438878133784</v>
       </c>
       <c r="U27" t="n">
-        <v>777.1376234546756</v>
+        <v>777.1376234546747</v>
       </c>
       <c r="V27" t="n">
-        <v>642.2999799509138</v>
+        <v>642.299979950913</v>
       </c>
       <c r="W27" t="n">
-        <v>499.8850922093719</v>
+        <v>499.8850922093711</v>
       </c>
       <c r="X27" t="n">
-        <v>398.2803726845548</v>
+        <v>398.280372684554</v>
       </c>
       <c r="Y27" t="n">
-        <v>306.6685138852333</v>
+        <v>306.6685138852324</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.6244117523938</v>
+        <v>58.12406428302583</v>
       </c>
       <c r="C28" t="n">
-        <v>302.6244117523938</v>
+        <v>58.12406428302583</v>
       </c>
       <c r="D28" t="n">
-        <v>234.6936567800797</v>
+        <v>58.12406428302583</v>
       </c>
       <c r="E28" t="n">
-        <v>166.8372027644534</v>
+        <v>58.12406428302583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21362610259759</v>
+        <v>58.12406428302583</v>
       </c>
       <c r="G28" t="n">
-        <v>20.3098793023358</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H28" t="n">
-        <v>20.3098793023358</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I28" t="n">
-        <v>20.3098793023358</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="J28" t="n">
-        <v>129.0594579759277</v>
+        <v>82.94073540641821</v>
       </c>
       <c r="K28" t="n">
-        <v>218.378987691749</v>
+        <v>334.2754917728235</v>
       </c>
       <c r="L28" t="n">
-        <v>469.7137440581546</v>
+        <v>443.9741179294301</v>
       </c>
       <c r="M28" t="n">
-        <v>582.8208395639598</v>
+        <v>557.0812134352353</v>
       </c>
       <c r="N28" t="n">
-        <v>700.3897602516688</v>
+        <v>674.6501341229443</v>
       </c>
       <c r="O28" t="n">
-        <v>802.3419839464864</v>
+        <v>776.6023578177619</v>
       </c>
       <c r="P28" t="n">
-        <v>889.5953915594241</v>
+        <v>863.8557654306996</v>
       </c>
       <c r="Q28" t="n">
-        <v>1015.49396511679</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="R28" t="n">
-        <v>1013.40508400721</v>
+        <v>1013.405084007209</v>
       </c>
       <c r="S28" t="n">
-        <v>911.5118174747221</v>
+        <v>911.5118174747211</v>
       </c>
       <c r="T28" t="n">
-        <v>911.5118174747221</v>
+        <v>911.5118174747211</v>
       </c>
       <c r="U28" t="n">
-        <v>713.8167624307138</v>
+        <v>713.8167624307127</v>
       </c>
       <c r="V28" t="n">
-        <v>535.5397753767093</v>
+        <v>535.5397753767081</v>
       </c>
       <c r="W28" t="n">
-        <v>535.5397753767093</v>
+        <v>339.911731433057</v>
       </c>
       <c r="X28" t="n">
-        <v>535.5397753767093</v>
+        <v>193.5337673412113</v>
       </c>
       <c r="Y28" t="n">
-        <v>400.1300723185238</v>
+        <v>58.12406428302583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>630.661014073788</v>
+        <v>678.910493440353</v>
       </c>
       <c r="C29" t="n">
-        <v>630.661014073788</v>
+        <v>678.910493440353</v>
       </c>
       <c r="D29" t="n">
-        <v>630.661014073788</v>
+        <v>678.910493440353</v>
       </c>
       <c r="E29" t="n">
-        <v>374.2231440948008</v>
+        <v>495.8085910703281</v>
       </c>
       <c r="F29" t="n">
-        <v>374.2231440948008</v>
+        <v>239.370721091341</v>
       </c>
       <c r="G29" t="n">
-        <v>117.7852741158135</v>
+        <v>239.370721091341</v>
       </c>
       <c r="H29" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I29" t="n">
-        <v>20.30987930233579</v>
+        <v>34.58470156746383</v>
       </c>
       <c r="J29" t="n">
-        <v>116.8537805451587</v>
+        <v>144.7195829268084</v>
       </c>
       <c r="K29" t="n">
-        <v>186.0700723980486</v>
+        <v>299.8929559781786</v>
       </c>
       <c r="L29" t="n">
-        <v>295.9251481724175</v>
+        <v>467.8393105693776</v>
       </c>
       <c r="M29" t="n">
-        <v>524.7023023155626</v>
+        <v>610.6593835140425</v>
       </c>
       <c r="N29" t="n">
-        <v>672.8323288005026</v>
+        <v>758.7894099989826</v>
       </c>
       <c r="O29" t="n">
-        <v>804.0393925263727</v>
+        <v>889.9964737248526</v>
       </c>
       <c r="P29" t="n">
-        <v>893.5959352753779</v>
+        <v>979.5530164738578</v>
       </c>
       <c r="Q29" t="n">
         <v>1015.493965116789</v>
@@ -6490,25 +6490,25 @@
         <v>1015.493965116789</v>
       </c>
       <c r="S29" t="n">
-        <v>1015.493965116789</v>
+        <v>975.2206511278955</v>
       </c>
       <c r="T29" t="n">
-        <v>887.0988840527752</v>
+        <v>846.8255700638814</v>
       </c>
       <c r="U29" t="n">
-        <v>887.0988840527752</v>
+        <v>678.910493440353</v>
       </c>
       <c r="V29" t="n">
-        <v>887.0988840527752</v>
+        <v>678.910493440353</v>
       </c>
       <c r="W29" t="n">
-        <v>630.661014073788</v>
+        <v>678.910493440353</v>
       </c>
       <c r="X29" t="n">
-        <v>630.661014073788</v>
+        <v>678.910493440353</v>
       </c>
       <c r="Y29" t="n">
-        <v>630.661014073788</v>
+        <v>678.910493440353</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>242.5745375694431</v>
+        <v>242.5745375694432</v>
       </c>
       <c r="C30" t="n">
-        <v>179.6226652547065</v>
+        <v>179.6226652547066</v>
       </c>
       <c r="D30" t="n">
         <v>137.2360560013581</v>
       </c>
       <c r="E30" t="n">
-        <v>88.49192323741704</v>
+        <v>88.49192323741707</v>
       </c>
       <c r="F30" t="n">
-        <v>51.76247524572006</v>
+        <v>51.76247524572007</v>
       </c>
       <c r="G30" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H30" t="n">
-        <v>28.29183490461268</v>
+        <v>28.29183490461266</v>
       </c>
       <c r="I30" t="n">
-        <v>80.74059786203658</v>
+        <v>80.74059786203668</v>
       </c>
       <c r="J30" t="n">
-        <v>133.5003495492728</v>
+        <v>168.8662106797697</v>
       </c>
       <c r="K30" t="n">
-        <v>273.9644327548914</v>
+        <v>223.373212686908</v>
       </c>
       <c r="L30" t="n">
-        <v>377.3654752861796</v>
+        <v>377.3654752861798</v>
       </c>
       <c r="M30" t="n">
-        <v>510.6115791200705</v>
+        <v>510.6115791200707</v>
       </c>
       <c r="N30" t="n">
-        <v>742.707011230004</v>
+        <v>656.7499300315242</v>
       </c>
       <c r="O30" t="n">
-        <v>861.9521849905547</v>
+        <v>775.9951037920748</v>
       </c>
       <c r="P30" t="n">
-        <v>945.0904567154874</v>
+        <v>859.1333755170076</v>
       </c>
       <c r="Q30" t="n">
-        <v>968.2187119753892</v>
+        <v>968.2187119753894</v>
       </c>
       <c r="R30" t="n">
-        <v>1015.493965116789</v>
+        <v>1015.49396511679</v>
       </c>
       <c r="S30" t="n">
-        <v>985.073095463415</v>
+        <v>985.0730954634153</v>
       </c>
       <c r="T30" t="n">
-        <v>899.4388781337846</v>
+        <v>899.438878133785</v>
       </c>
       <c r="U30" t="n">
-        <v>777.1376234546752</v>
+        <v>777.1376234546756</v>
       </c>
       <c r="V30" t="n">
-        <v>642.2999799509137</v>
+        <v>642.2999799509139</v>
       </c>
       <c r="W30" t="n">
-        <v>499.8850922093717</v>
+        <v>499.885092209372</v>
       </c>
       <c r="X30" t="n">
-        <v>398.2803726845545</v>
+        <v>398.2803726845549</v>
       </c>
       <c r="Y30" t="n">
-        <v>306.6685138852332</v>
+        <v>306.6685138852333</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>243.6372103424841</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="C31" t="n">
-        <v>161.1344505336445</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="D31" t="n">
-        <v>161.1344505336445</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="E31" t="n">
-        <v>161.1344505336445</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="F31" t="n">
-        <v>161.1344505336445</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="G31" t="n">
-        <v>81.34136222178611</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H31" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I31" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="J31" t="n">
-        <v>77.11164687711374</v>
+        <v>129.0594579759276</v>
       </c>
       <c r="K31" t="n">
-        <v>166.4311765929351</v>
+        <v>218.378987691749</v>
       </c>
       <c r="L31" t="n">
-        <v>276.1298027495417</v>
+        <v>469.7137440581543</v>
       </c>
       <c r="M31" t="n">
-        <v>527.4645591159472</v>
+        <v>582.8208395639595</v>
       </c>
       <c r="N31" t="n">
-        <v>645.0334798036562</v>
+        <v>700.3897602516685</v>
       </c>
       <c r="O31" t="n">
-        <v>746.9857034984738</v>
+        <v>802.341983946486</v>
       </c>
       <c r="P31" t="n">
-        <v>863.8557654307</v>
+        <v>964.7714303492991</v>
       </c>
       <c r="Q31" t="n">
         <v>1015.493965116789</v>
@@ -6648,25 +6648,25 @@
         <v>1015.493965116789</v>
       </c>
       <c r="S31" t="n">
-        <v>913.6006985843019</v>
+        <v>913.6006985843015</v>
       </c>
       <c r="T31" t="n">
-        <v>913.6006985843019</v>
+        <v>768.825327676404</v>
       </c>
       <c r="U31" t="n">
-        <v>715.9056435402936</v>
+        <v>638.0985349579673</v>
       </c>
       <c r="V31" t="n">
-        <v>537.6286564862889</v>
+        <v>459.8215479039627</v>
       </c>
       <c r="W31" t="n">
-        <v>487.5208350004598</v>
+        <v>264.1935039603115</v>
       </c>
       <c r="X31" t="n">
-        <v>341.1428709086142</v>
+        <v>117.8155398684659</v>
       </c>
       <c r="Y31" t="n">
-        <v>341.1428709086142</v>
+        <v>117.8155398684659</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>910.2223394650432</v>
+        <v>785.423335046812</v>
       </c>
       <c r="C32" t="n">
-        <v>910.2223394650432</v>
+        <v>785.423335046812</v>
       </c>
       <c r="D32" t="n">
-        <v>785.4233350468122</v>
+        <v>785.423335046812</v>
       </c>
       <c r="E32" t="n">
-        <v>533.1856192603102</v>
+        <v>533.18561926031</v>
       </c>
       <c r="F32" t="n">
-        <v>276.747749281323</v>
+        <v>276.7477492813229</v>
       </c>
       <c r="G32" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H32" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I32" t="n">
-        <v>95.98154786490763</v>
+        <v>95.98154786490758</v>
       </c>
       <c r="J32" t="n">
-        <v>120.1593480257721</v>
+        <v>267.5132755216961</v>
       </c>
       <c r="K32" t="n">
-        <v>189.375639878662</v>
+        <v>336.7295673745861</v>
       </c>
       <c r="L32" t="n">
-        <v>299.2307156530309</v>
+        <v>446.5846431489549</v>
       </c>
       <c r="M32" t="n">
-        <v>550.5654720194362</v>
+        <v>589.4047160936198</v>
       </c>
       <c r="N32" t="n">
-        <v>736.8644387420534</v>
+        <v>737.5347425785599</v>
       </c>
       <c r="O32" t="n">
-        <v>868.0715024679234</v>
+        <v>868.7418063044299</v>
       </c>
       <c r="P32" t="n">
-        <v>957.628045216929</v>
+        <v>958.2983490534355</v>
       </c>
       <c r="Q32" t="n">
-        <v>993.5689938598601</v>
+        <v>994.2392976963666</v>
       </c>
       <c r="R32" t="n">
-        <v>993.5689938598601</v>
+        <v>994.2392976963666</v>
       </c>
       <c r="S32" t="n">
         <v>1015.493965116789</v>
@@ -6733,19 +6733,19 @@
         <v>1015.493965116789</v>
       </c>
       <c r="U32" t="n">
-        <v>910.2223394650432</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="V32" t="n">
-        <v>910.2223394650432</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="W32" t="n">
-        <v>910.2223394650432</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="X32" t="n">
-        <v>910.2223394650432</v>
+        <v>1015.493965116789</v>
       </c>
       <c r="Y32" t="n">
-        <v>910.2223394650432</v>
+        <v>1015.493965116789</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.61830064529009</v>
+        <v>381.2882098592477</v>
       </c>
       <c r="C33" t="n">
-        <v>20.30987930233579</v>
+        <v>274.8306527977236</v>
       </c>
       <c r="D33" t="n">
-        <v>20.30987930233579</v>
+        <v>144.741685419204</v>
       </c>
       <c r="E33" t="n">
-        <v>20.30987930233579</v>
+        <v>144.741685419204</v>
       </c>
       <c r="F33" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="G33" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H33" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I33" t="n">
-        <v>20.30987930233579</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="J33" t="n">
-        <v>22.4784109215885</v>
+        <v>22.47841092158849</v>
       </c>
       <c r="K33" t="n">
-        <v>76.98541292872684</v>
+        <v>76.98541292872683</v>
       </c>
       <c r="L33" t="n">
         <v>180.386455460015</v>
@@ -6803,28 +6803,28 @@
         <v>685.2826109507445</v>
       </c>
       <c r="R33" t="n">
-        <v>645.8153850992189</v>
+        <v>685.2826109507445</v>
       </c>
       <c r="S33" t="n">
-        <v>645.8153850992189</v>
+        <v>685.2826109507445</v>
       </c>
       <c r="T33" t="n">
-        <v>472.4788096444172</v>
+        <v>662.2918445928962</v>
       </c>
       <c r="U33" t="n">
-        <v>392.3099407685647</v>
+        <v>602.634040885569</v>
       </c>
       <c r="V33" t="n">
-        <v>169.7699391396318</v>
+        <v>530.4398483535895</v>
       </c>
       <c r="W33" t="n">
-        <v>89.99850236987211</v>
+        <v>450.6684115838298</v>
       </c>
       <c r="X33" t="n">
-        <v>51.03723381683724</v>
+        <v>411.7071430307949</v>
       </c>
       <c r="Y33" t="n">
-        <v>22.06882598929795</v>
+        <v>382.7387352032556</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>319.0795216928373</v>
+        <v>74.7992582139187</v>
       </c>
       <c r="C34" t="n">
-        <v>299.22021285578</v>
+        <v>54.93994937686138</v>
       </c>
       <c r="D34" t="n">
-        <v>293.9329088552482</v>
+        <v>49.65264537632958</v>
       </c>
       <c r="E34" t="n">
-        <v>288.7199058114042</v>
+        <v>44.43964233248555</v>
       </c>
       <c r="F34" t="n">
-        <v>281.7397801213306</v>
+        <v>37.45951664241195</v>
       </c>
       <c r="G34" t="n">
-        <v>264.5901427812545</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="H34" t="n">
-        <v>266.170032669345</v>
+        <v>20.30987930233578</v>
       </c>
       <c r="I34" t="n">
-        <v>305.43752265709</v>
+        <v>59.57736929008077</v>
       </c>
       <c r="J34" t="n">
-        <v>423.6361365293118</v>
+        <v>59.57736929008077</v>
       </c>
       <c r="K34" t="n">
-        <v>574.352512542577</v>
+        <v>62.93981780742184</v>
       </c>
       <c r="L34" t="n">
-        <v>598.0940575007032</v>
+        <v>228.9836089517971</v>
       </c>
       <c r="M34" t="n">
-        <v>772.5979993039522</v>
+        <v>256.133623259122</v>
       </c>
       <c r="N34" t="n">
-        <v>951.5637662891049</v>
+        <v>287.7454627483506</v>
       </c>
       <c r="O34" t="n">
-        <v>1014.197638702332</v>
+        <v>451.094532740612</v>
       </c>
       <c r="P34" t="n">
-        <v>1015.493965116789</v>
+        <v>599.7447866509934</v>
       </c>
       <c r="Q34" t="n">
-        <v>1015.493965116789</v>
+        <v>711.8641677159272</v>
       </c>
       <c r="R34" t="n">
-        <v>1015.493965116789</v>
+        <v>771.2137016378712</v>
       </c>
       <c r="S34" t="n">
-        <v>976.2441495560842</v>
+        <v>731.963886077166</v>
       </c>
       <c r="T34" t="n">
-        <v>894.1122296199688</v>
+        <v>649.8319661410505</v>
       </c>
       <c r="U34" t="n">
-        <v>759.0606255477428</v>
+        <v>514.7803620688244</v>
       </c>
       <c r="V34" t="n">
-        <v>643.4270894655206</v>
+        <v>399.146825986602</v>
       </c>
       <c r="W34" t="n">
-        <v>510.4424964936517</v>
+        <v>266.1622330147331</v>
       </c>
       <c r="X34" t="n">
-        <v>426.7079833735883</v>
+        <v>182.4277198946697</v>
       </c>
       <c r="Y34" t="n">
-        <v>353.9417312871851</v>
+        <v>109.6614678082665</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>208.8165855144582</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="C35" t="n">
-        <v>208.8165855144582</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="D35" t="n">
-        <v>15.32456780276602</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="E35" t="n">
-        <v>15.32456780276602</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="F35" t="n">
-        <v>15.32456780276602</v>
+        <v>208.8165855144581</v>
       </c>
       <c r="G35" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="H35" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="I35" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="J35" t="n">
-        <v>39.50236796363038</v>
+        <v>39.50236796363045</v>
       </c>
       <c r="K35" t="n">
         <v>108.7186598165204</v>
@@ -6949,40 +6949,40 @@
         <v>361.3938085355541</v>
       </c>
       <c r="N35" t="n">
-        <v>509.5238350204941</v>
+        <v>509.5238350204942</v>
       </c>
       <c r="O35" t="n">
         <v>640.7308987463641</v>
       </c>
       <c r="P35" t="n">
-        <v>730.2874414953698</v>
+        <v>730.2874414953696</v>
       </c>
       <c r="Q35" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383008</v>
       </c>
       <c r="R35" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383008</v>
       </c>
       <c r="S35" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="T35" t="n">
-        <v>700.4767600460691</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="U35" t="n">
-        <v>595.205134394323</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="V35" t="n">
-        <v>595.205134394323</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="W35" t="n">
-        <v>595.205134394323</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="X35" t="n">
-        <v>401.7131166826308</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="Y35" t="n">
-        <v>208.8165855144582</v>
+        <v>766.2283901383007</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>107.8338614841793</v>
+        <v>15.63298914572034</v>
       </c>
       <c r="C36" t="n">
-        <v>107.525440141225</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="D36" t="n">
-        <v>107.525440141225</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="E36" t="n">
-        <v>107.525440141225</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="F36" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="G36" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="H36" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="I36" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="J36" t="n">
         <v>17.49309942201873</v>
@@ -7043,25 +7043,25 @@
         <v>680.2972994511747</v>
       </c>
       <c r="S36" t="n">
-        <v>562.1740716726292</v>
+        <v>680.2972994511747</v>
       </c>
       <c r="T36" t="n">
-        <v>388.8374962178275</v>
+        <v>506.960723996373</v>
       </c>
       <c r="U36" t="n">
-        <v>329.1796925105004</v>
+        <v>447.3029202890459</v>
       </c>
       <c r="V36" t="n">
-        <v>256.985499978521</v>
+        <v>375.1087277570663</v>
       </c>
       <c r="W36" t="n">
-        <v>177.2140632087613</v>
+        <v>295.3372909873066</v>
       </c>
       <c r="X36" t="n">
-        <v>138.2527946557264</v>
+        <v>106.0302133373183</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.2843868281871</v>
+        <v>77.06180550977896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.81394671434872</v>
+        <v>69.81394671434894</v>
       </c>
       <c r="C37" t="n">
-        <v>49.95463787729142</v>
+        <v>49.95463787729161</v>
       </c>
       <c r="D37" t="n">
-        <v>44.66733387675976</v>
+        <v>44.66733387675981</v>
       </c>
       <c r="E37" t="n">
-        <v>39.45433083291573</v>
+        <v>39.45433083291578</v>
       </c>
       <c r="F37" t="n">
-        <v>32.47420514284215</v>
+        <v>32.47420514284218</v>
       </c>
       <c r="G37" t="n">
-        <v>15.32456780276602</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="H37" t="n">
-        <v>16.90445769085655</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="I37" t="n">
-        <v>56.17194767860157</v>
+        <v>54.592057790511</v>
       </c>
       <c r="J37" t="n">
-        <v>174.3705615508233</v>
+        <v>54.592057790511</v>
       </c>
       <c r="K37" t="n">
-        <v>325.0869375640885</v>
+        <v>77.01781248912985</v>
       </c>
       <c r="L37" t="n">
-        <v>371.3522249481509</v>
+        <v>248.1132849431802</v>
       </c>
       <c r="M37" t="n">
-        <v>398.5022392554758</v>
+        <v>422.6172267464292</v>
       </c>
       <c r="N37" t="n">
-        <v>430.1140787447044</v>
+        <v>601.582993731582</v>
       </c>
       <c r="O37" t="n">
-        <v>593.4631487369658</v>
+        <v>617.5781362279192</v>
       </c>
       <c r="P37" t="n">
-        <v>594.7594751514232</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="Q37" t="n">
-        <v>706.878856216357</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="R37" t="n">
-        <v>766.2283901383009</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="S37" t="n">
-        <v>726.9785745775957</v>
+        <v>726.9785745775955</v>
       </c>
       <c r="T37" t="n">
-        <v>644.8466546414804</v>
+        <v>644.8466546414801</v>
       </c>
       <c r="U37" t="n">
-        <v>509.7950505692542</v>
+        <v>509.795050569254</v>
       </c>
       <c r="V37" t="n">
-        <v>394.1615144870321</v>
+        <v>394.1615144870317</v>
       </c>
       <c r="W37" t="n">
-        <v>261.1769215151633</v>
+        <v>261.1769215151628</v>
       </c>
       <c r="X37" t="n">
-        <v>177.4424083950998</v>
+        <v>177.4424083950994</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.6761563086965</v>
+        <v>104.6761563086962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>402.3086032261502</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="C38" t="n">
-        <v>208.8165855144581</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="D38" t="n">
         <v>15.32456780276601</v>
@@ -7171,19 +7171,19 @@
         <v>15.32456780276601</v>
       </c>
       <c r="I38" t="n">
-        <v>15.32456780276601</v>
+        <v>15.32456780276598</v>
       </c>
       <c r="J38" t="n">
-        <v>39.50236796363043</v>
+        <v>39.50236796363042</v>
       </c>
       <c r="K38" t="n">
         <v>108.7186598165204</v>
       </c>
       <c r="L38" t="n">
-        <v>218.5737355908893</v>
+        <v>218.5737355908892</v>
       </c>
       <c r="M38" t="n">
-        <v>361.393808535554</v>
+        <v>361.3938085355541</v>
       </c>
       <c r="N38" t="n">
         <v>509.5238350204941</v>
@@ -7204,22 +7204,22 @@
         <v>766.2283901383007</v>
       </c>
       <c r="T38" t="n">
-        <v>766.2283901383007</v>
+        <v>701.0722465895885</v>
       </c>
       <c r="U38" t="n">
-        <v>766.2283901383007</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="V38" t="n">
-        <v>766.2283901383007</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="W38" t="n">
-        <v>766.2283901383007</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="X38" t="n">
-        <v>766.2283901383007</v>
+        <v>208.8165855144581</v>
       </c>
       <c r="Y38" t="n">
-        <v>572.7363724266086</v>
+        <v>208.8165855144581</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>225.9570892627246</v>
+        <v>49.82166197610135</v>
       </c>
       <c r="C39" t="n">
-        <v>225.6486679197703</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="D39" t="n">
-        <v>225.6486679197703</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="E39" t="n">
-        <v>94.88290429516823</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="F39" t="n">
-        <v>94.88290429516823</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="G39" t="n">
-        <v>94.88290429516823</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="H39" t="n">
-        <v>15.32456780276601</v>
+        <v>49.51324063314701</v>
       </c>
       <c r="I39" t="n">
         <v>15.32456780276601</v>
@@ -7277,28 +7277,28 @@
         <v>680.2972994511747</v>
       </c>
       <c r="R39" t="n">
-        <v>680.2972994511747</v>
+        <v>640.8300735996492</v>
       </c>
       <c r="S39" t="n">
-        <v>680.2972994511747</v>
+        <v>640.8300735996492</v>
       </c>
       <c r="T39" t="n">
-        <v>657.3065330933264</v>
+        <v>467.4934981448474</v>
       </c>
       <c r="U39" t="n">
-        <v>597.6487293859993</v>
+        <v>392.4653181821353</v>
       </c>
       <c r="V39" t="n">
-        <v>525.4545368540198</v>
+        <v>198.9733004704431</v>
       </c>
       <c r="W39" t="n">
-        <v>445.6831000842601</v>
+        <v>119.2018637006834</v>
       </c>
       <c r="X39" t="n">
-        <v>406.7218315312252</v>
+        <v>80.24059514764855</v>
       </c>
       <c r="Y39" t="n">
-        <v>227.4076146067325</v>
+        <v>51.27218732010923</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.8139467143488</v>
+        <v>69.813946714349</v>
       </c>
       <c r="C40" t="n">
-        <v>49.9546378772915</v>
+        <v>49.95463787729167</v>
       </c>
       <c r="D40" t="n">
-        <v>44.66733387675973</v>
+        <v>44.66733387675987</v>
       </c>
       <c r="E40" t="n">
-        <v>39.45433083291572</v>
+        <v>39.45433083291582</v>
       </c>
       <c r="F40" t="n">
-        <v>32.47420514284215</v>
+        <v>32.47420514284217</v>
       </c>
       <c r="G40" t="n">
         <v>15.32456780276601</v>
       </c>
       <c r="H40" t="n">
-        <v>16.90445769085655</v>
+        <v>16.90445769085652</v>
       </c>
       <c r="I40" t="n">
-        <v>56.17194767860156</v>
+        <v>16.90445769085652</v>
       </c>
       <c r="J40" t="n">
-        <v>174.3705615508233</v>
+        <v>16.90445769085652</v>
       </c>
       <c r="K40" t="n">
-        <v>325.0869375640885</v>
+        <v>20.26690620819759</v>
       </c>
       <c r="L40" t="n">
-        <v>348.8284825222148</v>
+        <v>76.64436995630251</v>
       </c>
       <c r="M40" t="n">
-        <v>375.9784968295397</v>
+        <v>103.7943842636274</v>
       </c>
       <c r="N40" t="n">
-        <v>554.9442638146925</v>
+        <v>282.7601512487802</v>
       </c>
       <c r="O40" t="n">
-        <v>570.9394063110298</v>
+        <v>446.1092212410415</v>
       </c>
       <c r="P40" t="n">
         <v>594.759475151423</v>
@@ -7362,22 +7362,22 @@
         <v>726.9785745775955</v>
       </c>
       <c r="T40" t="n">
-        <v>644.8466546414802</v>
+        <v>644.8466546414807</v>
       </c>
       <c r="U40" t="n">
-        <v>509.7950505692542</v>
+        <v>509.7950505692547</v>
       </c>
       <c r="V40" t="n">
-        <v>394.1615144870319</v>
+        <v>394.1615144870324</v>
       </c>
       <c r="W40" t="n">
-        <v>261.176921515163</v>
+        <v>261.1769215151635</v>
       </c>
       <c r="X40" t="n">
-        <v>177.4424083950996</v>
+        <v>177.4424083951</v>
       </c>
       <c r="Y40" t="n">
-        <v>104.6761563086966</v>
+        <v>104.6761563086968</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>357.7618302244013</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="C41" t="n">
-        <v>357.7618302244013</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="D41" t="n">
-        <v>357.7618302244013</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="E41" t="n">
-        <v>164.2698125127091</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="F41" t="n">
-        <v>164.2698125127091</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="G41" t="n">
-        <v>164.2698125127091</v>
+        <v>208.8165855144581</v>
       </c>
       <c r="H41" t="n">
         <v>15.32456780276601</v>
@@ -7411,7 +7411,7 @@
         <v>15.32456780276601</v>
       </c>
       <c r="J41" t="n">
-        <v>39.50236796363045</v>
+        <v>39.50236796363043</v>
       </c>
       <c r="K41" t="n">
         <v>108.7186598165204</v>
@@ -7420,19 +7420,19 @@
         <v>218.5737355908893</v>
       </c>
       <c r="M41" t="n">
-        <v>361.3938085355541</v>
+        <v>361.3938085355542</v>
       </c>
       <c r="N41" t="n">
-        <v>509.5238350204942</v>
+        <v>509.5238350204943</v>
       </c>
       <c r="O41" t="n">
-        <v>640.7308987463641</v>
+        <v>640.7308987463643</v>
       </c>
       <c r="P41" t="n">
-        <v>730.2874414953696</v>
+        <v>730.2874414953695</v>
       </c>
       <c r="Q41" t="n">
-        <v>766.2283901383008</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="R41" t="n">
         <v>766.2283901383007</v>
@@ -7441,22 +7441,22 @@
         <v>744.7458656477855</v>
       </c>
       <c r="T41" t="n">
-        <v>744.7458656477855</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="U41" t="n">
-        <v>744.7458656477855</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="V41" t="n">
-        <v>744.7458656477855</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="W41" t="n">
-        <v>551.2538479360934</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="X41" t="n">
-        <v>551.2538479360934</v>
+        <v>635.1415740821499</v>
       </c>
       <c r="Y41" t="n">
-        <v>551.2538479360934</v>
+        <v>635.1415740821499</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.6352785779816</v>
+        <v>143.6352785779812</v>
       </c>
       <c r="C42" t="n">
-        <v>99.47419576162338</v>
+        <v>99.47419576162304</v>
       </c>
       <c r="D42" t="n">
-        <v>75.87837600665328</v>
+        <v>75.87837600665307</v>
       </c>
       <c r="E42" t="n">
-        <v>45.92503274109058</v>
+        <v>45.92503274109049</v>
       </c>
       <c r="F42" t="n">
-        <v>27.98637424777194</v>
+        <v>27.9863742477719</v>
       </c>
       <c r="G42" t="n">
         <v>15.32456780276601</v>
       </c>
       <c r="H42" t="n">
-        <v>15.32456780276601</v>
+        <v>35.56355256113117</v>
       </c>
       <c r="I42" t="n">
-        <v>15.32456780276601</v>
+        <v>35.56355256113117</v>
       </c>
       <c r="J42" t="n">
-        <v>17.49309942201873</v>
+        <v>37.73208418038388</v>
       </c>
       <c r="K42" t="n">
-        <v>72.00010142915707</v>
+        <v>92.23908618752222</v>
       </c>
       <c r="L42" t="n">
-        <v>175.4011439604453</v>
+        <v>195.6401287188104</v>
       </c>
       <c r="M42" t="n">
-        <v>308.6472477943361</v>
+        <v>328.8862325527012</v>
       </c>
       <c r="N42" t="n">
-        <v>454.7855987057895</v>
+        <v>475.0245834641547</v>
       </c>
       <c r="O42" t="n">
-        <v>574.0307724663402</v>
+        <v>594.2697572247054</v>
       </c>
       <c r="P42" t="n">
-        <v>657.169044191273</v>
+        <v>677.4080289496382</v>
       </c>
       <c r="Q42" t="n">
-        <v>766.2283901383007</v>
+        <v>700.5362842095399</v>
       </c>
       <c r="R42" t="n">
         <v>766.2283901383007</v>
@@ -7523,19 +7523,19 @@
         <v>687.7548821520527</v>
       </c>
       <c r="U42" t="n">
-        <v>584.2444169713224</v>
+        <v>584.2444169713219</v>
       </c>
       <c r="V42" t="n">
-        <v>468.197562965939</v>
+        <v>468.1975629659385</v>
       </c>
       <c r="W42" t="n">
-        <v>344.5734647227754</v>
+        <v>344.5734647227748</v>
       </c>
       <c r="X42" t="n">
-        <v>261.7595346963366</v>
+        <v>261.7595346963361</v>
       </c>
       <c r="Y42" t="n">
-        <v>188.9384653953933</v>
+        <v>188.9384653953929</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.4828615254828</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="C43" t="n">
-        <v>155.7708912150216</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="D43" t="n">
-        <v>106.6309257410859</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="E43" t="n">
-        <v>57.56526122383798</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="F43" t="n">
-        <v>57.56526122383798</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="G43" t="n">
-        <v>57.56526122383798</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="H43" t="n">
-        <v>15.32456780276601</v>
+        <v>19.11245018450064</v>
       </c>
       <c r="I43" t="n">
         <v>15.32456780276601</v>
       </c>
       <c r="J43" t="n">
-        <v>90.54318816490459</v>
+        <v>90.54318816490463</v>
       </c>
       <c r="K43" t="n">
-        <v>179.7983989746118</v>
+        <v>198.2795706680867</v>
       </c>
       <c r="L43" t="n">
-        <v>307.913877918579</v>
+        <v>291.544337506718</v>
       </c>
       <c r="M43" t="n">
-        <v>439.4378262117448</v>
+        <v>318.6943518140429</v>
       </c>
       <c r="N43" t="n">
-        <v>575.4235996868144</v>
+        <v>454.6801252891125</v>
       </c>
       <c r="O43" t="n">
-        <v>695.7926761689927</v>
+        <v>575.0492017712908</v>
       </c>
       <c r="P43" t="n">
-        <v>697.0890025834501</v>
+        <v>680.7194621715892</v>
       </c>
       <c r="Q43" t="n">
-        <v>766.2283901383007</v>
+        <v>749.8588497264399</v>
       </c>
       <c r="R43" t="n">
         <v>766.2283901383007</v>
       </c>
       <c r="S43" t="n">
-        <v>683.1259131041916</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="T43" t="n">
-        <v>683.1259131041916</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="U43" t="n">
-        <v>504.2216475585616</v>
+        <v>587.3241245926708</v>
       </c>
       <c r="V43" t="n">
-        <v>504.2216475585616</v>
+        <v>427.8379270370447</v>
       </c>
       <c r="W43" t="n">
-        <v>327.3843931132888</v>
+        <v>251.0006725917719</v>
       </c>
       <c r="X43" t="n">
-        <v>298.1977325932345</v>
+        <v>123.4134979983046</v>
       </c>
       <c r="Y43" t="n">
-        <v>298.1977325932345</v>
+        <v>61.35314360557257</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.03325153361541</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="C44" t="n">
-        <v>99.03325153361541</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="D44" t="n">
-        <v>15.32456780276601</v>
+        <v>402.3086032261502</v>
       </c>
       <c r="E44" t="n">
-        <v>15.32456780276601</v>
+        <v>208.8165855144581</v>
       </c>
       <c r="F44" t="n">
         <v>15.32456780276601</v>
@@ -7645,16 +7645,16 @@
         <v>15.32456780276601</v>
       </c>
       <c r="I44" t="n">
-        <v>15.32456780276598</v>
+        <v>15.32456780276601</v>
       </c>
       <c r="J44" t="n">
-        <v>39.50236796363042</v>
+        <v>39.50236796363045</v>
       </c>
       <c r="K44" t="n">
         <v>108.7186598165204</v>
       </c>
       <c r="L44" t="n">
-        <v>218.5737355908892</v>
+        <v>218.5737355908893</v>
       </c>
       <c r="M44" t="n">
         <v>361.3938085355541</v>
@@ -7675,25 +7675,25 @@
         <v>766.2283901383007</v>
       </c>
       <c r="S44" t="n">
-        <v>744.7458656477855</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="T44" t="n">
-        <v>635.1415740821498</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="U44" t="n">
-        <v>486.0172869569997</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="V44" t="n">
-        <v>292.5252692453075</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="W44" t="n">
-        <v>292.5252692453075</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="X44" t="n">
-        <v>292.5252692453075</v>
+        <v>595.8006209378424</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.5252692453075</v>
+        <v>595.8006209378424</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>143.6352785779817</v>
+        <v>143.6352785779814</v>
       </c>
       <c r="C45" t="n">
-        <v>99.47419576162343</v>
+        <v>99.47419576162321</v>
       </c>
       <c r="D45" t="n">
-        <v>75.87837600665333</v>
+        <v>75.87837600665316</v>
       </c>
       <c r="E45" t="n">
-        <v>45.9250327410906</v>
+        <v>45.92503274109049</v>
       </c>
       <c r="F45" t="n">
-        <v>27.98637424777196</v>
+        <v>27.9863742477719</v>
       </c>
       <c r="G45" t="n">
         <v>15.32456780276601</v>
@@ -7724,31 +7724,31 @@
         <v>15.32456780276601</v>
       </c>
       <c r="I45" t="n">
-        <v>15.32456780276601</v>
+        <v>86.19018354755057</v>
       </c>
       <c r="J45" t="n">
-        <v>103.4241901091447</v>
+        <v>88.35871516680329</v>
       </c>
       <c r="K45" t="n">
-        <v>157.931192116283</v>
+        <v>142.8657171739416</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3322346475712</v>
+        <v>246.2667597052298</v>
       </c>
       <c r="M45" t="n">
-        <v>394.5783384814621</v>
+        <v>379.5128635391206</v>
       </c>
       <c r="N45" t="n">
-        <v>540.7166893929156</v>
+        <v>525.6512144505741</v>
       </c>
       <c r="O45" t="n">
-        <v>659.9618631534662</v>
+        <v>644.8963882111248</v>
       </c>
       <c r="P45" t="n">
-        <v>743.100134878399</v>
+        <v>728.0346599360576</v>
       </c>
       <c r="Q45" t="n">
-        <v>766.2283901383007</v>
+        <v>751.1629151959593</v>
       </c>
       <c r="R45" t="n">
         <v>766.2283901383007</v>
@@ -7757,22 +7757,22 @@
         <v>754.5983099833048</v>
       </c>
       <c r="T45" t="n">
-        <v>687.7548821520527</v>
+        <v>687.7548821520529</v>
       </c>
       <c r="U45" t="n">
-        <v>584.2444169713217</v>
+        <v>584.2444169713219</v>
       </c>
       <c r="V45" t="n">
-        <v>468.1975629659391</v>
+        <v>468.1975629659385</v>
       </c>
       <c r="W45" t="n">
-        <v>344.5734647227755</v>
+        <v>344.573464722775</v>
       </c>
       <c r="X45" t="n">
-        <v>261.7595346963367</v>
+        <v>261.7595346963362</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.9384653953935</v>
+        <v>188.9384653953931</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>172.1100186977767</v>
+        <v>335.1058298841747</v>
       </c>
       <c r="C46" t="n">
-        <v>108.3980483873155</v>
+        <v>271.3938595737135</v>
       </c>
       <c r="D46" t="n">
-        <v>108.3980483873155</v>
+        <v>222.2538940997779</v>
       </c>
       <c r="E46" t="n">
-        <v>108.3980483873155</v>
+        <v>173.18822958253</v>
       </c>
       <c r="F46" t="n">
-        <v>57.56526122383799</v>
+        <v>122.3554424190526</v>
       </c>
       <c r="G46" t="n">
-        <v>57.56526122383799</v>
+        <v>61.35314360557257</v>
       </c>
       <c r="H46" t="n">
-        <v>15.32456780276601</v>
+        <v>19.11245018450064</v>
       </c>
       <c r="I46" t="n">
         <v>15.32456780276601</v>
       </c>
       <c r="J46" t="n">
-        <v>90.54318816490458</v>
+        <v>90.54318816490463</v>
       </c>
       <c r="K46" t="n">
-        <v>198.2795706680866</v>
+        <v>198.2795706680867</v>
       </c>
       <c r="L46" t="n">
-        <v>222.0211156262129</v>
+        <v>326.395049612054</v>
       </c>
       <c r="M46" t="n">
-        <v>353.5450639193787</v>
+        <v>457.9189979052198</v>
       </c>
       <c r="N46" t="n">
-        <v>489.5308373944483</v>
+        <v>593.9047713802895</v>
       </c>
       <c r="O46" t="n">
-        <v>575.049201771291</v>
+        <v>609.8999138766268</v>
       </c>
       <c r="P46" t="n">
-        <v>680.7194621715893</v>
+        <v>715.5701742769252</v>
       </c>
       <c r="Q46" t="n">
-        <v>749.8588497264399</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="R46" t="n">
         <v>766.2283901383007</v>
       </c>
       <c r="S46" t="n">
-        <v>683.1259131041916</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="T46" t="n">
-        <v>557.1413316946723</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="U46" t="n">
-        <v>557.1413316946723</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="V46" t="n">
-        <v>397.6551341390461</v>
+        <v>766.2283901383007</v>
       </c>
       <c r="W46" t="n">
-        <v>367.4438033253355</v>
+        <v>589.391135693028</v>
       </c>
       <c r="X46" t="n">
-        <v>367.4438033253355</v>
+        <v>461.8039610995607</v>
       </c>
       <c r="Y46" t="n">
-        <v>250.8248897655284</v>
+        <v>413.8207009519264</v>
       </c>
     </row>
   </sheetData>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-2.515321284590755e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.4725364634484</v>
+        <v>5.887968211418681</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>163.6517440914989</v>
       </c>
       <c r="L28" t="n">
-        <v>143.0667981917161</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.9353927170464</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>143.0667981917158</v>
       </c>
       <c r="M31" t="n">
-        <v>139.6238998591921</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>29.9158124437258</v>
+        <v>75.93539271704579</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.338090598515</v>
+        <v>291.0615821069688</v>
       </c>
       <c r="C11" t="n">
-        <v>92.25843280020939</v>
+        <v>283.8155303347846</v>
       </c>
       <c r="D11" t="n">
-        <v>276.1585013481848</v>
+        <v>84.60140381360958</v>
       </c>
       <c r="E11" t="n">
-        <v>101.5723759527316</v>
+        <v>293.1294734873068</v>
       </c>
       <c r="F11" t="n">
         <v>307.2972779380079</v>
       </c>
       <c r="G11" t="n">
-        <v>301.9286384528788</v>
+        <v>133.2051469444249</v>
       </c>
       <c r="H11" t="n">
-        <v>198.2673517677205</v>
+        <v>6.710254233145236</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.26769924560997</v>
+        <v>21.26769924561</v>
       </c>
       <c r="T11" t="n">
         <v>108.5082486499793</v>
@@ -23323,10 +23323,10 @@
         <v>261.8608285340813</v>
       </c>
       <c r="X11" t="n">
-        <v>280.1298628689596</v>
+        <v>88.57276533438437</v>
       </c>
       <c r="Y11" t="n">
-        <v>95.54048830671559</v>
+        <v>287.0975858412908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.92772235707413</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>48.64856581919626</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.39227582534519</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>41.8182864868612</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.750003557917296</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.27145226376797</v>
+        <v>82.271452263768</v>
       </c>
       <c r="T13" t="n">
-        <v>57.12971318350006</v>
+        <v>124.724735595424</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>177.1152228901736</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>157.8913355800699</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>126.3113028475326</v>
+        <v>64.19929332013359</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.4527244242089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.0615821069688</v>
+        <v>186.9222859678176</v>
       </c>
       <c r="C14" t="n">
-        <v>92.25843280020939</v>
+        <v>283.8155303347846</v>
       </c>
       <c r="D14" t="n">
         <v>276.1585013481848</v>
       </c>
       <c r="E14" t="n">
-        <v>293.1294734873068</v>
+        <v>101.5723759527315</v>
       </c>
       <c r="F14" t="n">
         <v>307.2972779380079</v>
       </c>
       <c r="G14" t="n">
-        <v>110.3715409183036</v>
+        <v>301.9286384528788</v>
       </c>
       <c r="H14" t="n">
-        <v>29.54386025926675</v>
+        <v>198.2673517677205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.26769924560997</v>
+        <v>21.26769924561</v>
       </c>
       <c r="T14" t="n">
-        <v>108.5082486499793</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>147.6330442538985</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>233.2575250562027</v>
       </c>
       <c r="W14" t="n">
-        <v>70.30373099950612</v>
+        <v>261.8608285340813</v>
       </c>
       <c r="X14" t="n">
         <v>280.1298628689596</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.0975858412908</v>
+        <v>95.54048830671553</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.92772235707413</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.07485060735654</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>48.64856581919629</v>
       </c>
       <c r="E16" t="n">
-        <v>48.57500787207537</v>
+        <v>48.5750078720754</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.392789068405214</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.63821809482654</v>
       </c>
       <c r="I16" t="n">
-        <v>3.750003557917267</v>
+        <v>3.750003557917296</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.27145226376797</v>
+        <v>82.271452263768</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>124.724735595424</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>157.8913355800699</v>
       </c>
       <c r="W16" t="n">
-        <v>175.06888190082</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>115.452724424209</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>240.4043306495349</v>
       </c>
       <c r="D17" t="n">
-        <v>232.7473016629352</v>
+        <v>232.7473016629351</v>
       </c>
       <c r="E17" t="n">
-        <v>249.7182738020571</v>
+        <v>58.16117626748189</v>
       </c>
       <c r="F17" t="n">
-        <v>72.32898071818306</v>
+        <v>72.328980718183</v>
       </c>
       <c r="G17" t="n">
-        <v>258.5174387676291</v>
+        <v>66.9603412330539</v>
       </c>
       <c r="H17" t="n">
         <v>154.8561520824708</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>104.2218445686489</v>
+        <v>0.595402024924752</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>189.846325370953</v>
       </c>
       <c r="W17" t="n">
-        <v>26.89253131425647</v>
+        <v>218.4496288488316</v>
       </c>
       <c r="X17" t="n">
-        <v>131.3814484763638</v>
+        <v>236.7186631837099</v>
       </c>
       <c r="Y17" t="n">
         <v>243.6863861560411</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.0381572544619857</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03815725446266072</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.6503824217191</v>
+        <v>56.09328488714391</v>
       </c>
       <c r="C20" t="n">
         <v>240.4043306495349</v>
       </c>
       <c r="D20" t="n">
-        <v>232.7473016629352</v>
+        <v>232.7473016629351</v>
       </c>
       <c r="E20" t="n">
-        <v>144.3810590947108</v>
+        <v>58.16117626748189</v>
       </c>
       <c r="F20" t="n">
-        <v>263.8860782527582</v>
+        <v>72.328980718183</v>
       </c>
       <c r="G20" t="n">
         <v>258.5174387676291</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>65.09704896472962</v>
       </c>
       <c r="U20" t="n">
-        <v>104.2218445686489</v>
+        <v>104.2218445686488</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.12283386249922</v>
       </c>
       <c r="W20" t="n">
-        <v>26.89253131425642</v>
+        <v>218.4496288488316</v>
       </c>
       <c r="X20" t="n">
-        <v>45.16156564913473</v>
+        <v>236.7186631837099</v>
       </c>
       <c r="Y20" t="n">
         <v>243.6863861560411</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.03815725446194218</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03815725446241913</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.08345257049186</v>
+        <v>247.6503824217191</v>
       </c>
       <c r="C23" t="n">
-        <v>48.83740079830764</v>
+        <v>240.4043306495349</v>
       </c>
       <c r="D23" t="n">
-        <v>232.7473016629352</v>
+        <v>218.8713019324452</v>
       </c>
       <c r="E23" t="n">
-        <v>249.7182738020571</v>
+        <v>58.15134395083012</v>
       </c>
       <c r="F23" t="n">
-        <v>72.31914840153095</v>
+        <v>72.31914840153124</v>
       </c>
       <c r="G23" t="n">
-        <v>258.5174387676291</v>
+        <v>66.95050891640213</v>
       </c>
       <c r="H23" t="n">
-        <v>154.8561520824708</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>65.09704896472968</v>
+        <v>65.09704896472962</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>104.2218445686488</v>
       </c>
       <c r="V23" t="n">
         <v>189.846325370953</v>
       </c>
       <c r="W23" t="n">
-        <v>153.9393216045197</v>
+        <v>218.4496288488316</v>
       </c>
       <c r="X23" t="n">
-        <v>236.71866318371</v>
+        <v>236.7186631837099</v>
       </c>
       <c r="Y23" t="n">
         <v>243.6863861560411</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.7909724311659</v>
+        <v>309.6644637103634</v>
       </c>
       <c r="C26" t="n">
         <v>302.4184119381792</v>
       </c>
       <c r="D26" t="n">
-        <v>294.7613829515794</v>
+        <v>201.128065027159</v>
       </c>
       <c r="E26" t="n">
-        <v>57.85886381150388</v>
+        <v>57.85886381150414</v>
       </c>
       <c r="F26" t="n">
-        <v>325.9001595414025</v>
+        <v>72.02666826220525</v>
       </c>
       <c r="G26" t="n">
         <v>320.5315200562734</v>
       </c>
       <c r="H26" t="n">
-        <v>216.8702333711151</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.8705808490046</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.1111302533739</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>166.2359258572932</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>251.8604066595973</v>
       </c>
       <c r="W26" t="n">
         <v>280.4637101374759</v>
       </c>
       <c r="X26" t="n">
-        <v>73.10788873403692</v>
+        <v>298.7327444723542</v>
       </c>
       <c r="Y26" t="n">
         <v>305.7004674446854</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>96.53060396046877</v>
       </c>
       <c r="C28" t="n">
         <v>81.67773221075117</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.2514474225909</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>67.17788947547001</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>68.92734089523728</v>
       </c>
       <c r="G28" t="n">
-        <v>2.860448096480667</v>
+        <v>41.55911429785667</v>
       </c>
       <c r="H28" t="n">
         <v>60.42116809025583</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>193.6717635042147</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>144.9141844509272</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>294.7613829515794</v>
       </c>
       <c r="E29" t="n">
-        <v>57.85886381150405</v>
+        <v>130.4614717443768</v>
       </c>
       <c r="F29" t="n">
-        <v>325.9001595414025</v>
+        <v>72.02666826220525</v>
       </c>
       <c r="G29" t="n">
-        <v>66.65802877707605</v>
+        <v>320.5315200562734</v>
       </c>
       <c r="H29" t="n">
-        <v>120.3695925057721</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.87058084900459</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>166.2359258572932</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>251.8604066595973</v>
       </c>
       <c r="W29" t="n">
-        <v>26.59021885827858</v>
+        <v>280.4637101374759</v>
       </c>
       <c r="X29" t="n">
         <v>298.7327444723542</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>81.67773221075117</v>
       </c>
       <c r="D31" t="n">
-        <v>67.25144742259089</v>
+        <v>67.2514474225909</v>
       </c>
       <c r="E31" t="n">
-        <v>67.17788947547</v>
+        <v>67.17788947547001</v>
       </c>
       <c r="F31" t="n">
-        <v>68.92734089523726</v>
+        <v>68.92734089523728</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.99515742873983</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>60.42116809025583</v>
       </c>
       <c r="I31" t="n">
-        <v>22.35288516131189</v>
+        <v>22.3528851613119</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.067992298484661</v>
+        <v>2.067992298484675</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>143.3276171988186</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>66.29857970231598</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>144.0650202332438</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.647447248299</v>
+        <v>19.87752347902173</v>
       </c>
       <c r="C32" t="n">
-        <v>240.4013954761147</v>
+        <v>240.4013954761148</v>
       </c>
       <c r="D32" t="n">
-        <v>109.1933521154663</v>
+        <v>232.744366489515</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.00965180014074</v>
+        <v>10.00965180014083</v>
       </c>
       <c r="G32" t="n">
-        <v>4.641012315011636</v>
+        <v>4.641012315011722</v>
       </c>
       <c r="H32" t="n">
-        <v>154.8532169090506</v>
+        <v>154.8532169090507</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>65.0941137913095</v>
+        <v>65.09411379130952</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>104.2189093952287</v>
       </c>
       <c r="V32" t="n">
-        <v>189.8433901975328</v>
+        <v>189.8433901975329</v>
       </c>
       <c r="W32" t="n">
         <v>218.4466936754115</v>
@@ -24985,7 +24985,7 @@
         <v>236.7157280102898</v>
       </c>
       <c r="Y32" t="n">
-        <v>243.6834509826209</v>
+        <v>243.683450982621</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>247.647447248299</v>
+        <v>78.92395573984524</v>
       </c>
       <c r="C35" t="n">
-        <v>240.4013954761147</v>
+        <v>240.4013954761148</v>
       </c>
       <c r="D35" t="n">
-        <v>41.18726895493975</v>
+        <v>232.744366489515</v>
       </c>
       <c r="E35" t="n">
-        <v>249.7153386286369</v>
+        <v>58.15824109406179</v>
       </c>
       <c r="F35" t="n">
-        <v>263.8831430793381</v>
+        <v>72.32604554476291</v>
       </c>
       <c r="G35" t="n">
-        <v>258.514503594209</v>
+        <v>66.9574060596338</v>
       </c>
       <c r="H35" t="n">
-        <v>154.8532169090506</v>
+        <v>154.8532169090507</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>65.09411379130952</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>104.2189093952287</v>
       </c>
       <c r="V35" t="n">
-        <v>189.8433901975328</v>
+        <v>189.8433901975329</v>
       </c>
       <c r="W35" t="n">
         <v>218.4466936754115</v>
       </c>
       <c r="X35" t="n">
-        <v>45.15863047571455</v>
+        <v>236.7157280102898</v>
       </c>
       <c r="Y35" t="n">
-        <v>52.71588512613005</v>
+        <v>243.683450982621</v>
       </c>
     </row>
     <row r="36">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.92395573984521</v>
+        <v>56.09034971372381</v>
       </c>
       <c r="C38" t="n">
-        <v>48.84429794153957</v>
+        <v>240.4013954761148</v>
       </c>
       <c r="D38" t="n">
-        <v>41.18726895493981</v>
+        <v>232.744366489515</v>
       </c>
       <c r="E38" t="n">
-        <v>249.7153386286369</v>
+        <v>249.715338628637</v>
       </c>
       <c r="F38" t="n">
         <v>263.8831430793381</v>
@@ -25408,7 +25408,7 @@
         <v>258.514503594209</v>
       </c>
       <c r="H38" t="n">
-        <v>154.8532169090506</v>
+        <v>154.8532169090507</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.0941137913095</v>
+        <v>0.5895316780844695</v>
       </c>
       <c r="U38" t="n">
-        <v>104.2189093952287</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>189.8433901975328</v>
+        <v>189.8433901975329</v>
       </c>
       <c r="W38" t="n">
-        <v>218.4466936754115</v>
+        <v>26.88959614083632</v>
       </c>
       <c r="X38" t="n">
-        <v>236.7157280102898</v>
+        <v>45.15863047571463</v>
       </c>
       <c r="Y38" t="n">
-        <v>52.12635344804576</v>
+        <v>243.683450982621</v>
       </c>
     </row>
     <row r="39">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.50448457239366</v>
+        <v>291.0615821069688</v>
       </c>
       <c r="C41" t="n">
         <v>283.8155303347846</v>
       </c>
       <c r="D41" t="n">
-        <v>276.1585013481849</v>
+        <v>276.1585013481848</v>
       </c>
       <c r="E41" t="n">
-        <v>101.5723759527316</v>
+        <v>254.1819298744423</v>
       </c>
       <c r="F41" t="n">
-        <v>307.2972779380079</v>
+        <v>115.7401804034327</v>
       </c>
       <c r="G41" t="n">
-        <v>301.9286384528788</v>
+        <v>110.3715409183036</v>
       </c>
       <c r="H41" t="n">
-        <v>50.81155950487684</v>
+        <v>6.710254233145292</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.5082486499794</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>147.6330442538986</v>
+        <v>147.6330442538985</v>
       </c>
       <c r="V41" t="n">
         <v>233.2575250562027</v>
       </c>
       <c r="W41" t="n">
-        <v>70.30373099950617</v>
+        <v>261.8608285340813</v>
       </c>
       <c r="X41" t="n">
-        <v>280.1298628689597</v>
+        <v>280.1298628689596</v>
       </c>
       <c r="Y41" t="n">
         <v>287.0975858412908</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>77.92772235707415</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.07485060735655</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>48.64856581919628</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>48.57500787207539</v>
       </c>
       <c r="F43" t="n">
-        <v>50.3244592918427</v>
+        <v>50.32445929184266</v>
       </c>
       <c r="G43" t="n">
-        <v>60.39227582534524</v>
+        <v>60.3922758253452</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.750003557917324</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.27145226376797</v>
       </c>
       <c r="T43" t="n">
-        <v>124.7247355954241</v>
+        <v>124.724735595424</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>157.8913355800699</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.41650893267892</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.452724424209</v>
+        <v>54.01297357540424</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.50448457239366</v>
+        <v>99.50448457239361</v>
       </c>
       <c r="C44" t="n">
         <v>283.8155303347846</v>
       </c>
       <c r="D44" t="n">
-        <v>193.286904454644</v>
+        <v>276.1585013481848</v>
       </c>
       <c r="E44" t="n">
-        <v>293.1294734873068</v>
+        <v>101.5723759527316</v>
       </c>
       <c r="F44" t="n">
-        <v>307.2972779380079</v>
+        <v>115.7401804034327</v>
       </c>
       <c r="G44" t="n">
         <v>301.9286384528788</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>21.26769924560998</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>108.5082486499793</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>147.6330442538985</v>
       </c>
       <c r="V44" t="n">
-        <v>41.70042752162755</v>
+        <v>233.2575250562027</v>
       </c>
       <c r="W44" t="n">
         <v>261.8608285340813</v>
       </c>
       <c r="X44" t="n">
-        <v>280.1298628689597</v>
+        <v>111.4063713605059</v>
       </c>
       <c r="Y44" t="n">
         <v>287.0975858412908</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>48.64856581919634</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>48.57500787207545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>60.39227582534526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.750003557917339</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.27145226376797</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>124.724735595424</v>
       </c>
       <c r="U46" t="n">
-        <v>177.1152228901737</v>
+        <v>177.1152228901736</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.8913355800699</v>
       </c>
       <c r="W46" t="n">
-        <v>145.1596643952466</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>126.3113028475327</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>67.94929687805097</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423840.2647334855</v>
+        <v>423840.2647334854</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>380155.3023454115</v>
+        <v>380155.3023454113</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423843.2295521572</v>
+        <v>423843.2295521571</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423843.2295521572</v>
+        <v>423843.2295521571</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>377900.7010656457</v>
+        <v>377900.7010656458</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>377900.701065646</v>
+        <v>377900.7010656458</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>719596.8852588686</v>
+        <v>719596.8852588683</v>
       </c>
       <c r="C2" t="n">
-        <v>719596.8852588683</v>
+        <v>719596.8852588682</v>
       </c>
       <c r="D2" t="n">
         <v>719596.8852588683</v>
       </c>
       <c r="E2" t="n">
-        <v>503867.6014208611</v>
+        <v>503867.6014208612</v>
       </c>
       <c r="F2" t="n">
-        <v>503867.601420861</v>
+        <v>503867.6014208613</v>
       </c>
       <c r="G2" t="n">
         <v>565120.3529779806</v>
       </c>
       <c r="H2" t="n">
-        <v>565120.3529779805</v>
+        <v>565120.3529779806</v>
       </c>
       <c r="I2" t="n">
-        <v>565124.3060695429</v>
+        <v>565124.3060695428</v>
       </c>
       <c r="J2" t="n">
-        <v>501444.2419131056</v>
+        <v>501444.2419131049</v>
       </c>
       <c r="K2" t="n">
-        <v>501444.2419131053</v>
+        <v>501444.2419131051</v>
       </c>
       <c r="L2" t="n">
-        <v>584374.5679527366</v>
+        <v>584374.5679527363</v>
       </c>
       <c r="M2" t="n">
-        <v>565124.3060695434</v>
+        <v>565124.3060695437</v>
       </c>
       <c r="N2" t="n">
-        <v>565124.3060695437</v>
+        <v>565124.3060695431</v>
       </c>
       <c r="O2" t="n">
         <v>503867.6014208611</v>
@@ -26380,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34728.9597481997</v>
+        <v>34728.95974819977</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.614619476430195</v>
+        <v>2.614619476354616</v>
       </c>
       <c r="J3" t="n">
-        <v>51033.44584519573</v>
+        <v>51033.44584519569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84342.57291785124</v>
+        <v>84342.5729178513</v>
       </c>
       <c r="M3" t="n">
-        <v>32207.30034727147</v>
+        <v>32207.30034727149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>143777.1724211776</v>
       </c>
       <c r="G4" t="n">
-        <v>178690.9042695725</v>
+        <v>178690.9042695726</v>
       </c>
       <c r="H4" t="n">
         <v>178690.9042695726</v>
       </c>
       <c r="I4" t="n">
-        <v>178693.212426034</v>
+        <v>178693.2124260339</v>
       </c>
       <c r="J4" t="n">
-        <v>143210.5686205215</v>
+        <v>143210.5686205214</v>
       </c>
       <c r="K4" t="n">
-        <v>143210.5686205215</v>
+        <v>143210.5686205214</v>
       </c>
       <c r="L4" t="n">
-        <v>189933.1269673239</v>
+        <v>189933.1269673238</v>
       </c>
       <c r="M4" t="n">
         <v>178693.160564083</v>
       </c>
       <c r="N4" t="n">
-        <v>178693.1605640831</v>
+        <v>178693.160564083</v>
       </c>
       <c r="O4" t="n">
-        <v>143777.1724211775</v>
+        <v>143777.1724211776</v>
       </c>
       <c r="P4" t="n">
-        <v>143777.1724211775</v>
+        <v>143777.1724211776</v>
       </c>
     </row>
     <row r="5">
@@ -26484,22 +26484,22 @@
         <v>29589.08207834869</v>
       </c>
       <c r="G5" t="n">
-        <v>33238.61822468794</v>
+        <v>33238.61822468795</v>
       </c>
       <c r="H5" t="n">
-        <v>33238.61822468794</v>
+        <v>33238.61822468795</v>
       </c>
       <c r="I5" t="n">
-        <v>33239.21602954039</v>
+        <v>33239.21602954037</v>
       </c>
       <c r="J5" t="n">
-        <v>31813.99316450594</v>
+        <v>31813.99316450593</v>
       </c>
       <c r="K5" t="n">
         <v>31813.99316450593</v>
       </c>
       <c r="L5" t="n">
-        <v>37027.70172145523</v>
+        <v>37027.70172145522</v>
       </c>
       <c r="M5" t="n">
         <v>33238.8649817822</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275247.0754716919</v>
+        <v>275242.7459039052</v>
       </c>
       <c r="C6" t="n">
-        <v>275247.0754716917</v>
+        <v>275242.7459039051</v>
       </c>
       <c r="D6" t="n">
-        <v>275247.0754716917</v>
+        <v>275242.7459039052</v>
       </c>
       <c r="E6" t="n">
-        <v>-145633.6251622116</v>
+        <v>-146177.2779395929</v>
       </c>
       <c r="F6" t="n">
-        <v>330501.3469213347</v>
+        <v>329957.6941439536</v>
       </c>
       <c r="G6" t="n">
-        <v>318461.8707355205</v>
+        <v>318071.3498370317</v>
       </c>
       <c r="H6" t="n">
-        <v>353190.8304837201</v>
+        <v>352800.3095852315</v>
       </c>
       <c r="I6" t="n">
-        <v>353189.2629944921</v>
+        <v>352798.7519787324</v>
       </c>
       <c r="J6" t="n">
-        <v>275386.2342828825</v>
+        <v>274836.5231067311</v>
       </c>
       <c r="K6" t="n">
-        <v>326419.6801280779</v>
+        <v>325869.9689519269</v>
       </c>
       <c r="L6" t="n">
-        <v>273071.1663461063</v>
+        <v>272728.7809850543</v>
       </c>
       <c r="M6" t="n">
-        <v>320984.9801764067</v>
+        <v>320594.4691606472</v>
       </c>
       <c r="N6" t="n">
-        <v>353192.2805236785</v>
+        <v>352801.7695079182</v>
       </c>
       <c r="O6" t="n">
-        <v>330501.3469213349</v>
+        <v>329957.6941439535</v>
       </c>
       <c r="P6" t="n">
-        <v>330501.3469213349</v>
+        <v>329957.6941439534</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>86.8253345439195</v>
       </c>
       <c r="K2" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="L2" t="n">
         <v>148.8423510059839</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>416.475497475136</v>
+        <v>416.4754974751361</v>
       </c>
       <c r="F3" t="n">
         <v>416.4754974751361</v>
@@ -26810,10 +26810,10 @@
         <v>191.5570975345752</v>
       </c>
       <c r="I4" t="n">
-        <v>191.5669298512273</v>
+        <v>191.5669298512269</v>
       </c>
       <c r="J4" t="n">
-        <v>253.8734912791975</v>
+        <v>253.8734912791973</v>
       </c>
       <c r="K4" t="n">
         <v>253.8734912791973</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.41119968524963</v>
+        <v>43.41119968524971</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.41413485866987</v>
+        <v>43.41413485866979</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>416.475497475136</v>
+        <v>416.4754974751361</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009832316652051531</v>
+        <v>0.009832316651767314</v>
       </c>
       <c r="J4" t="n">
-        <v>62.30656142797022</v>
+        <v>62.30656142797031</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.2407037899531</v>
+        <v>129.2407037899532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43.41119968524963</v>
+        <v>43.41119968524971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.41413485866987</v>
+        <v>43.41413485866979</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>105.4282161473141</v>
       </c>
       <c r="I11" t="n">
-        <v>72.40632215490129</v>
+        <v>72.40632215490128</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>34.95902583738682</v>
+        <v>34.9590258373868</v>
       </c>
       <c r="S11" t="n">
         <v>105.4282161473141</v>
@@ -28192,7 +28192,7 @@
         <v>33.84678610207719</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>86.79908150214767</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28210,13 +28210,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>86.79908150214769</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.07255359301028</v>
+        <v>39.07255359301027</v>
       </c>
       <c r="S12" t="n">
         <v>105.4282161473141</v>
@@ -28280,22 +28280,22 @@
         <v>105.4282161473141</v>
       </c>
       <c r="M13" t="n">
-        <v>34.63502570658055</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="N13" t="n">
-        <v>105.4282161473141</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.4282161473141</v>
+        <v>86.76036595188511</v>
       </c>
       <c r="P13" t="n">
         <v>105.4282161473141</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.59045094039426</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="R13" t="n">
-        <v>105.4282161473141</v>
+        <v>88.89332684240418</v>
       </c>
       <c r="S13" t="n">
         <v>105.4282161473141</v>
@@ -28426,7 +28426,7 @@
         <v>78.76275312747819</v>
       </c>
       <c r="I15" t="n">
-        <v>33.84678610207719</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28435,7 +28435,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>86.79908150214744</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28453,7 +28453,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.07255359301027</v>
+        <v>54.29020504992116</v>
       </c>
       <c r="S15" t="n">
         <v>105.4282161473141</v>
@@ -28514,16 +28514,16 @@
         <v>105.4282161473141</v>
       </c>
       <c r="L16" t="n">
-        <v>70.22547664697468</v>
+        <v>70.22547664697504</v>
       </c>
       <c r="M16" t="n">
         <v>105.4282161473141</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>105.4282161473141</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>105.4282161473141</v>
@@ -28645,13 +28645,13 @@
         <v>148.8394158325638</v>
       </c>
       <c r="C18" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.535123578737</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -28660,7 +28660,7 @@
         <v>117.9634045278699</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>78.76275312747819</v>
       </c>
       <c r="I18" t="n">
         <v>33.84678610207719</v>
@@ -28693,19 +28693,19 @@
         <v>39.07255359301027</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>116.94199550076</v>
       </c>
       <c r="T18" t="n">
         <v>148.8394158325638</v>
       </c>
       <c r="U18" t="n">
-        <v>148.8394158325638</v>
+        <v>16.34647914166257</v>
       </c>
       <c r="V18" t="n">
         <v>148.8394158325638</v>
       </c>
       <c r="W18" t="n">
-        <v>148.8394158325638</v>
+        <v>73.13203962157161</v>
       </c>
       <c r="X18" t="n">
         <v>148.8394158325638</v>
@@ -28745,31 +28745,31 @@
         <v>148.8394158325638</v>
       </c>
       <c r="J19" t="n">
-        <v>29.44981174111349</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="N19" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.1614052810843</v>
+        <v>35.59045094039425</v>
       </c>
       <c r="R19" t="n">
-        <v>148.8394158325638</v>
+        <v>136.0207660818031</v>
       </c>
       <c r="S19" t="n">
         <v>148.8394158325638</v>
@@ -28879,13 +28879,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.39795543278865</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="C21" t="n">
         <v>148.8394158325638</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
@@ -28894,7 +28894,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.9634045278699</v>
       </c>
       <c r="H21" t="n">
         <v>78.76275312747819</v>
@@ -28927,19 +28927,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.07255359301027</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>116.94199550076</v>
       </c>
       <c r="T21" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>148.8394158325638</v>
+        <v>16.34647914166257</v>
       </c>
       <c r="V21" t="n">
-        <v>148.8394158325638</v>
+        <v>146.0513793166591</v>
       </c>
       <c r="W21" t="n">
         <v>148.8394158325638</v>
@@ -28985,25 +28985,25 @@
         <v>148.8394158325638</v>
       </c>
       <c r="K22" t="n">
-        <v>22.77180118963424</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>136.0207660818031</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>148.8394158325638</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>148.8394158325638</v>
+        <v>35.59045094039425</v>
       </c>
       <c r="R22" t="n">
         <v>148.8394158325638</v>
@@ -29058,7 +29058,7 @@
         <v>148.8394158325638</v>
       </c>
       <c r="I23" t="n">
-        <v>72.44525415619029</v>
+        <v>72.40632215490128</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>34.9590258373868</v>
       </c>
       <c r="S23" t="n">
-        <v>126.6959153929241</v>
+        <v>126.7348473942117</v>
       </c>
       <c r="T23" t="n">
         <v>148.8394158325638</v>
@@ -29119,13 +29119,13 @@
         <v>148.8394158325638</v>
       </c>
       <c r="C24" t="n">
-        <v>75.72112891089182</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -29137,7 +29137,7 @@
         <v>78.76275312747819</v>
       </c>
       <c r="I24" t="n">
-        <v>33.84678610207719</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29164,22 +29164,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.07255359301027</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>116.94199550076</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="U24" t="n">
-        <v>148.8394158325638</v>
+        <v>97.40104314008583</v>
       </c>
       <c r="V24" t="n">
-        <v>148.8394158325638</v>
+        <v>28.74767176141668</v>
       </c>
       <c r="W24" t="n">
-        <v>148.8394158325638</v>
+        <v>36.24914355681906</v>
       </c>
       <c r="X24" t="n">
         <v>148.8394158325638</v>
@@ -29231,13 +29231,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>148.8394158325638</v>
+        <v>22.81073319092143</v>
       </c>
       <c r="O25" t="n">
         <v>148.8394158325638</v>
       </c>
       <c r="P25" t="n">
-        <v>22.81073319092306</v>
+        <v>148.8394158325638</v>
       </c>
       <c r="Q25" t="n">
         <v>148.8394158325638</v>
@@ -29301,7 +29301,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>58.67805941093911</v>
       </c>
       <c r="L26" t="n">
         <v>86.8253345439195</v>
@@ -29316,13 +29316,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>6.811750704407196</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.8253345439195</v>
+        <v>34.95902583738932</v>
       </c>
       <c r="S26" t="n">
         <v>86.8253345439195</v>
@@ -29371,7 +29371,7 @@
         <v>86.8253345439195</v>
       </c>
       <c r="H27" t="n">
-        <v>86.8253345439195</v>
+        <v>78.76275312747819</v>
       </c>
       <c r="I27" t="n">
         <v>86.8253345439195</v>
@@ -29383,7 +29383,7 @@
         <v>86.8253345439195</v>
       </c>
       <c r="L27" t="n">
-        <v>51.10224249291274</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29392,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>59.16482390935336</v>
       </c>
       <c r="P27" t="n">
         <v>86.8253345439195</v>
@@ -29511,40 +29511,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="C29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="D29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="E29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="F29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="G29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="H29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="I29" t="n">
-        <v>72.40632215490128</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="J29" t="n">
-        <v>73.09707179995814</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>58.67805941093943</v>
       </c>
       <c r="M29" t="n">
-        <v>86.82533454391951</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29556,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.82533454391951</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>34.9590258373868</v>
       </c>
       <c r="S29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="T29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="U29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="V29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="W29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="X29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
     </row>
     <row r="30">
@@ -29590,43 +29590,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="C30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="D30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="E30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="F30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="G30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="H30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="I30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="J30" t="n">
-        <v>51.10224249291251</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="K30" t="n">
-        <v>86.82533454391951</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>51.10224249291274</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>86.82533454391951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -29635,31 +29635,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="R30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="S30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="T30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="U30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="V30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="W30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="X30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="Y30" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="C31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="D31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="E31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="F31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="G31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="H31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="I31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="J31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="K31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="L31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="M31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="N31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="O31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="P31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="R31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="S31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="T31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="U31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="V31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="W31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="X31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.82533454391951</v>
+        <v>86.8253345439195</v>
       </c>
     </row>
     <row r="32">
@@ -29772,7 +29772,7 @@
         <v>148.8423510059839</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29781,10 +29781,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.6107913350915</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>38.55448508856267</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>34.9590258373868</v>
       </c>
       <c r="S32" t="n">
-        <v>148.8423510059839</v>
+        <v>148.1652764236538</v>
       </c>
       <c r="T32" t="n">
         <v>148.8423510059839</v>
@@ -29830,16 +29830,16 @@
         <v>148.8423510059839</v>
       </c>
       <c r="C33" t="n">
-        <v>148.8423510059839</v>
+        <v>43.75470664459986</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>117.9634045278699</v>
@@ -29875,19 +29875,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>39.07255359301027</v>
       </c>
       <c r="S33" t="n">
         <v>116.94199550076</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="U33" t="n">
-        <v>128.5363964891438</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="W33" t="n">
         <v>148.8423510059839</v>
@@ -29924,37 +29924,37 @@
         <v>148.8423510059839</v>
       </c>
       <c r="H34" t="n">
-        <v>148.8423510059839</v>
+        <v>147.2465026341753</v>
       </c>
       <c r="I34" t="n">
         <v>148.8423510059839</v>
       </c>
       <c r="J34" t="n">
+        <v>29.44981174111349</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>143.7396426123727</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>148.8423510059839</v>
       </c>
-      <c r="K34" t="n">
+      <c r="P34" t="n">
         <v>148.8423510059839</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
         <v>148.8423510059839</v>
       </c>
-      <c r="N34" t="n">
+      <c r="R34" t="n">
         <v>148.8423510059839</v>
-      </c>
-      <c r="O34" t="n">
-        <v>47.10982819887851</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>35.59045094039425</v>
-      </c>
-      <c r="R34" t="n">
-        <v>88.89332684240418</v>
       </c>
       <c r="S34" t="n">
         <v>148.8423510059839</v>
@@ -30064,7 +30064,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>148.8423510059839</v>
+        <v>89.46384289613368</v>
       </c>
       <c r="C36" t="n">
         <v>148.8423510059839</v>
@@ -30076,7 +30076,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>31.90862444062515</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>117.9634045278699</v>
@@ -30115,7 +30115,7 @@
         <v>39.07255359301027</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>116.94199550076</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30130,7 +30130,7 @@
         <v>148.8423510059839</v>
       </c>
       <c r="X36" t="n">
-        <v>148.8423510059839</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>148.8423510059839</v>
@@ -30161,37 +30161,37 @@
         <v>148.8423510059839</v>
       </c>
       <c r="H37" t="n">
-        <v>148.8423510059839</v>
+        <v>147.2465026341753</v>
       </c>
       <c r="I37" t="n">
         <v>148.8423510059839</v>
       </c>
       <c r="J37" t="n">
+        <v>29.44981174111349</v>
+      </c>
+      <c r="K37" t="n">
+        <v>19.25586482957352</v>
+      </c>
+      <c r="L37" t="n">
         <v>148.8423510059839</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>148.8423510059839</v>
       </c>
-      <c r="L37" t="n">
-        <v>22.75125497569306</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>148.8423510059839</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>148.8423510059839</v>
+        <v>35.59045094039425</v>
       </c>
       <c r="R37" t="n">
-        <v>148.8423510059839</v>
+        <v>88.89332684240418</v>
       </c>
       <c r="S37" t="n">
         <v>148.8423510059839</v>
@@ -30310,7 +30310,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>5.623919991865108</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -30319,10 +30319,10 @@
         <v>117.9634045278699</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>78.76275312747819</v>
       </c>
       <c r="I39" t="n">
-        <v>33.84678610207719</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30349,19 +30349,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.07255359301027</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>116.94199550076</v>
       </c>
       <c r="T39" t="n">
-        <v>148.8423510059839</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>148.8423510059839</v>
+        <v>133.6256785131527</v>
       </c>
       <c r="V39" t="n">
-        <v>148.8423510059839</v>
+        <v>28.75750407806845</v>
       </c>
       <c r="W39" t="n">
         <v>148.8423510059839</v>
@@ -30370,7 +30370,7 @@
         <v>148.8423510059839</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>148.8423510059839</v>
       </c>
     </row>
     <row r="40">
@@ -30401,16 +30401,16 @@
         <v>148.8423510059839</v>
       </c>
       <c r="I40" t="n">
-        <v>148.8423510059839</v>
+        <v>109.1782197052314</v>
       </c>
       <c r="J40" t="n">
-        <v>148.8423510059839</v>
+        <v>29.44981174111349</v>
       </c>
       <c r="K40" t="n">
-        <v>148.8423510059839</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>32.96557453533192</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30419,10 +30419,10 @@
         <v>148.8423510059839</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="P40" t="n">
-        <v>22.75125497569276</v>
+        <v>148.8423510059839</v>
       </c>
       <c r="Q40" t="n">
         <v>148.8423510059839</v>
@@ -30556,7 +30556,7 @@
         <v>105.4282161473141</v>
       </c>
       <c r="H42" t="n">
-        <v>78.76275312747819</v>
+        <v>99.20617207532179</v>
       </c>
       <c r="I42" t="n">
         <v>33.84678610207719</v>
@@ -30583,10 +30583,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>86.79908150214749</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.07255359301027</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="S42" t="n">
         <v>105.4282161473141</v>
@@ -30644,13 +30644,13 @@
         <v>105.4282161473141</v>
       </c>
       <c r="K43" t="n">
-        <v>86.76036595188498</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="L43" t="n">
-        <v>105.4282161473141</v>
+        <v>70.22547664697477</v>
       </c>
       <c r="M43" t="n">
-        <v>105.4282161473141</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>105.4282161473141</v>
@@ -30659,13 +30659,13 @@
         <v>105.4282161473141</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4282161473141</v>
       </c>
       <c r="R43" t="n">
-        <v>88.89332684240418</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="S43" t="n">
         <v>105.4282161473141</v>
@@ -30796,10 +30796,10 @@
         <v>78.76275312747819</v>
       </c>
       <c r="I45" t="n">
-        <v>33.84678610207719</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="J45" t="n">
-        <v>86.79908150214744</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30823,7 +30823,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.07255359301027</v>
+        <v>54.29020504992081</v>
       </c>
       <c r="S45" t="n">
         <v>105.4282161473141</v>
@@ -30884,7 +30884,7 @@
         <v>105.4282161473141</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.4282161473141</v>
       </c>
       <c r="M46" t="n">
         <v>105.4282161473141</v>
@@ -30893,16 +30893,16 @@
         <v>105.4282161473141</v>
       </c>
       <c r="O46" t="n">
-        <v>70.22547664697522</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>105.4282161473141</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.4282161473141</v>
+        <v>86.76036595188469</v>
       </c>
       <c r="R46" t="n">
-        <v>105.4282161473141</v>
+        <v>88.89332684240418</v>
       </c>
       <c r="S46" t="n">
         <v>105.4282161473141</v>
@@ -31758,7 +31758,7 @@
         <v>17.14665201413964</v>
       </c>
       <c r="I11" t="n">
-        <v>64.54742358355853</v>
+        <v>64.54742358355854</v>
       </c>
       <c r="J11" t="n">
         <v>142.1018583068556</v>
@@ -31767,16 +31767,16 @@
         <v>212.9738494952878</v>
       </c>
       <c r="L11" t="n">
-        <v>264.2128927349046</v>
+        <v>264.2128927349047</v>
       </c>
       <c r="M11" t="n">
         <v>293.9877515418331</v>
       </c>
       <c r="N11" t="n">
-        <v>298.7447807165114</v>
+        <v>298.7447807165115</v>
       </c>
       <c r="O11" t="n">
-        <v>282.0962250259852</v>
+        <v>282.0962250259853</v>
       </c>
       <c r="P11" t="n">
         <v>240.7626015328499</v>
@@ -31791,7 +31791,7 @@
         <v>38.15250411543584</v>
       </c>
       <c r="T11" t="n">
-        <v>7.32913161888405</v>
+        <v>7.329131618884051</v>
       </c>
       <c r="U11" t="n">
         <v>0.133941868534717</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8958152209842549</v>
+        <v>0.895815220984255</v>
       </c>
       <c r="H12" t="n">
         <v>8.651689107926885</v>
@@ -31840,10 +31840,10 @@
         <v>30.84276089792282</v>
       </c>
       <c r="J12" t="n">
-        <v>84.63489331237648</v>
+        <v>84.63489331237649</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6545131183215</v>
+        <v>144.6545131183216</v>
       </c>
       <c r="L12" t="n">
         <v>194.5058443632699</v>
@@ -31852,19 +31852,19 @@
         <v>226.9791461239491</v>
       </c>
       <c r="N12" t="n">
-        <v>232.9866087243216</v>
+        <v>232.9866087243217</v>
       </c>
       <c r="O12" t="n">
-        <v>213.1372293540915</v>
+        <v>213.1372293540916</v>
       </c>
       <c r="P12" t="n">
-        <v>171.0614170667214</v>
+        <v>171.0614170667215</v>
       </c>
       <c r="Q12" t="n">
         <v>114.3500271558147</v>
       </c>
       <c r="R12" t="n">
-        <v>55.6191239835663</v>
+        <v>55.61912398356631</v>
       </c>
       <c r="S12" t="n">
         <v>16.63937482836981</v>
@@ -31873,7 +31873,7 @@
         <v>3.610763982826886</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05893521190685889</v>
+        <v>0.0589352119068589</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7510213888895895</v>
+        <v>0.7510213888895896</v>
       </c>
       <c r="H13" t="n">
         <v>6.677262893945628</v>
@@ -31919,10 +31919,10 @@
         <v>22.58526140406148</v>
       </c>
       <c r="J13" t="n">
-        <v>53.09721219449397</v>
+        <v>53.09721219449398</v>
       </c>
       <c r="K13" t="n">
-        <v>87.25503045462683</v>
+        <v>87.25503045462685</v>
       </c>
       <c r="L13" t="n">
         <v>111.6563981263668</v>
@@ -31931,28 +31931,28 @@
         <v>117.726016442029</v>
       </c>
       <c r="N13" t="n">
-        <v>114.9267549016224</v>
+        <v>114.9267549016225</v>
       </c>
       <c r="O13" t="n">
-        <v>106.1534595859576</v>
+        <v>106.1534595859577</v>
       </c>
       <c r="P13" t="n">
-        <v>90.83262325260995</v>
+        <v>90.83262325260996</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.88780011874554</v>
+        <v>62.88780011874555</v>
       </c>
       <c r="R13" t="n">
-        <v>33.76865263134462</v>
+        <v>33.76865263134463</v>
       </c>
       <c r="S13" t="n">
         <v>13.08825456819402</v>
       </c>
       <c r="T13" t="n">
-        <v>3.208909570710063</v>
+        <v>3.208909570710064</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04096480303034129</v>
+        <v>0.0409648030303413</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>24.42202036450951</v>
+        <v>24.42202036450954</v>
       </c>
       <c r="K11" t="n">
-        <v>69.91544631605043</v>
+        <v>69.91544631605046</v>
       </c>
       <c r="L11" t="n">
-        <v>110.9647230044129</v>
+        <v>110.964723004413</v>
       </c>
       <c r="M11" t="n">
-        <v>144.2626999441058</v>
+        <v>144.2626999441059</v>
       </c>
       <c r="N11" t="n">
-        <v>149.6262893787273</v>
+        <v>149.6262893787274</v>
       </c>
       <c r="O11" t="n">
-        <v>132.5323876018888</v>
+        <v>132.5323876018889</v>
       </c>
       <c r="P11" t="n">
-        <v>90.46115429192466</v>
+        <v>90.46115429192471</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.30398852821324</v>
+        <v>36.30398852821327</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.19043597904313</v>
+        <v>88.98951748119082</v>
       </c>
       <c r="K12" t="n">
-        <v>55.0575777849882</v>
+        <v>55.05757778498823</v>
       </c>
       <c r="L12" t="n">
         <v>104.4454975063517</v>
@@ -35506,10 +35506,10 @@
         <v>120.4496704652027</v>
       </c>
       <c r="P12" t="n">
-        <v>170.7771337495545</v>
+        <v>83.97805224740682</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.36187399990072</v>
+        <v>23.36187399990074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>75.97840440620064</v>
+        <v>75.97840440620061</v>
       </c>
       <c r="K13" t="n">
         <v>108.824628791093</v>
       </c>
       <c r="L13" t="n">
-        <v>129.4095746908761</v>
+        <v>129.409574690876</v>
       </c>
       <c r="M13" t="n">
-        <v>62.05928258266627</v>
+        <v>132.8524730233999</v>
       </c>
       <c r="N13" t="n">
-        <v>137.359367146535</v>
+        <v>31.93115099922089</v>
       </c>
       <c r="O13" t="n">
-        <v>121.584925739574</v>
+        <v>102.917075544145</v>
       </c>
       <c r="P13" t="n">
         <v>106.7376367679781</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>69.83776520691985</v>
       </c>
       <c r="R13" t="n">
-        <v>16.53488930490995</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>71.58143004523691</v>
       </c>
       <c r="J15" t="n">
         <v>2.190435979043144</v>
@@ -35731,7 +35731,7 @@
         <v>55.05757778498823</v>
       </c>
       <c r="L15" t="n">
-        <v>191.2445790084992</v>
+        <v>104.4454975063517</v>
       </c>
       <c r="M15" t="n">
         <v>134.5920240746372</v>
@@ -35749,7 +35749,7 @@
         <v>23.36187399990074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.21765145691089</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.97840440620064</v>
+        <v>75.97840440620061</v>
       </c>
       <c r="K16" t="n">
         <v>108.824628791093</v>
       </c>
       <c r="L16" t="n">
-        <v>94.20683519053662</v>
+        <v>94.20683519053698</v>
       </c>
       <c r="M16" t="n">
         <v>132.8524730233999</v>
       </c>
       <c r="N16" t="n">
-        <v>137.359367146535</v>
+        <v>31.93115099922089</v>
       </c>
       <c r="O16" t="n">
-        <v>16.15670959225986</v>
+        <v>121.584925739574</v>
       </c>
       <c r="P16" t="n">
-        <v>106.7376367679782</v>
+        <v>106.7376367679781</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.83776520691988</v>
+        <v>69.83776520691985</v>
       </c>
       <c r="R16" t="n">
-        <v>16.53488930490996</v>
+        <v>16.53488930490993</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36035,37 +36035,37 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.592913198388435</v>
+        <v>1.592913198388492</v>
       </c>
       <c r="I19" t="n">
-        <v>39.66119612733236</v>
+        <v>39.66119612733242</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>119.3896040914503</v>
       </c>
       <c r="K19" t="n">
-        <v>3.396412643778859</v>
+        <v>152.2358284763427</v>
       </c>
       <c r="L19" t="n">
-        <v>23.98135854356194</v>
+        <v>172.8207743761258</v>
       </c>
       <c r="M19" t="n">
-        <v>27.42425687608574</v>
+        <v>176.2636727086496</v>
       </c>
       <c r="N19" t="n">
-        <v>180.7705668317847</v>
+        <v>31.93115099922089</v>
       </c>
       <c r="O19" t="n">
-        <v>164.9961254248236</v>
+        <v>16.15670959225986</v>
       </c>
       <c r="P19" t="n">
-        <v>150.1488364532278</v>
+        <v>1.309420620664028</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.57095434069</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.94608899015959</v>
+        <v>47.12743923939889</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36272,37 +36272,37 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.592913198388435</v>
+        <v>1.592913198388492</v>
       </c>
       <c r="I22" t="n">
-        <v>39.66119612733236</v>
+        <v>39.66119612733242</v>
       </c>
       <c r="J22" t="n">
         <v>119.3896040914503</v>
       </c>
       <c r="K22" t="n">
-        <v>26.1682138334131</v>
+        <v>152.2358284763427</v>
       </c>
       <c r="L22" t="n">
-        <v>23.98135854356194</v>
+        <v>172.8207743761258</v>
       </c>
       <c r="M22" t="n">
-        <v>27.42425687608574</v>
+        <v>163.4450229578888</v>
       </c>
       <c r="N22" t="n">
         <v>31.93115099922089</v>
       </c>
       <c r="O22" t="n">
-        <v>164.9961254248236</v>
+        <v>16.15670959225986</v>
       </c>
       <c r="P22" t="n">
-        <v>150.1488364532278</v>
+        <v>1.309420620664028</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.2489648921695</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.94608899015959</v>
+        <v>59.94608899015964</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0389320012890061</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>24.42202036450954</v>
@@ -36384,7 +36384,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.03893200128762449</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36509,10 +36509,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.592913198388435</v>
+        <v>1.592913198388492</v>
       </c>
       <c r="I25" t="n">
-        <v>39.66119612733236</v>
+        <v>39.66119612733242</v>
       </c>
       <c r="J25" t="n">
         <v>119.3896040914503</v>
@@ -36527,19 +36527,19 @@
         <v>27.42425687608574</v>
       </c>
       <c r="N25" t="n">
-        <v>180.7705668317847</v>
+        <v>54.74188419014232</v>
       </c>
       <c r="O25" t="n">
-        <v>164.9961254248236</v>
+        <v>164.9961254248237</v>
       </c>
       <c r="P25" t="n">
-        <v>24.12015381158708</v>
+        <v>150.1488364532278</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.2489648921695</v>
+        <v>113.2489648921696</v>
       </c>
       <c r="R25" t="n">
-        <v>59.94608899015959</v>
+        <v>59.94608899015964</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>24.42202036450954</v>
       </c>
       <c r="K26" t="n">
-        <v>69.91544631605046</v>
+        <v>128.5935057269896</v>
       </c>
       <c r="L26" t="n">
         <v>197.7900575483325</v>
@@ -36612,13 +36612,13 @@
         <v>132.5323876018889</v>
       </c>
       <c r="P26" t="n">
-        <v>97.2729049963319</v>
+        <v>90.46115429192471</v>
       </c>
       <c r="Q26" t="n">
         <v>36.30398852821327</v>
       </c>
       <c r="R26" t="n">
-        <v>51.86630870653269</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36667,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>8.062581416441304</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>52.97854844184231</v>
@@ -36679,7 +36679,7 @@
         <v>141.8829123289077</v>
       </c>
       <c r="L27" t="n">
-        <v>155.5477399992645</v>
+        <v>104.4454975063517</v>
       </c>
       <c r="M27" t="n">
         <v>134.5920240746372</v>
@@ -36688,7 +36688,7 @@
         <v>147.614495870155</v>
       </c>
       <c r="O27" t="n">
-        <v>120.4496704652027</v>
+        <v>179.614494374556</v>
       </c>
       <c r="P27" t="n">
         <v>170.8033867913263</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>109.8480592662544</v>
+        <v>63.26349101422468</v>
       </c>
       <c r="K28" t="n">
-        <v>90.22174718769836</v>
+        <v>253.8734912791973</v>
       </c>
       <c r="L28" t="n">
-        <v>253.8734912791975</v>
+        <v>110.8066930874814</v>
       </c>
       <c r="M28" t="n">
         <v>114.2495914200052</v>
@@ -36773,7 +36773,7 @@
         <v>88.13475516458352</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.1702763205716</v>
+        <v>153.1698986728175</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>14.41901238901822</v>
       </c>
       <c r="J29" t="n">
-        <v>97.51909216446768</v>
+        <v>111.247354908429</v>
       </c>
       <c r="K29" t="n">
-        <v>69.91544631605046</v>
+        <v>156.74078085997</v>
       </c>
       <c r="L29" t="n">
-        <v>110.964723004413</v>
+        <v>169.6427824153524</v>
       </c>
       <c r="M29" t="n">
-        <v>231.0880344880254</v>
+        <v>144.2626999441059</v>
       </c>
       <c r="N29" t="n">
         <v>149.6262893787274</v>
@@ -36852,7 +36852,7 @@
         <v>90.46115429192471</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.1293230721328</v>
+        <v>36.30398852821327</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36904,25 +36904,25 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8.062581416441319</v>
+        <v>8.062581416441304</v>
       </c>
       <c r="I30" t="n">
-        <v>52.97854844184232</v>
+        <v>52.97854844184231</v>
       </c>
       <c r="J30" t="n">
-        <v>53.29267847195565</v>
+        <v>89.01577052296264</v>
       </c>
       <c r="K30" t="n">
-        <v>141.8829123289077</v>
+        <v>55.05757778498823</v>
       </c>
       <c r="L30" t="n">
-        <v>104.4454975063517</v>
+        <v>155.5477399992645</v>
       </c>
       <c r="M30" t="n">
         <v>134.5920240746372</v>
       </c>
       <c r="N30" t="n">
-        <v>234.4398304140745</v>
+        <v>147.614495870155</v>
       </c>
       <c r="O30" t="n">
         <v>120.4496704652027</v>
@@ -36931,10 +36931,10 @@
         <v>83.97805224740682</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.36187399990074</v>
+        <v>110.1872085438202</v>
       </c>
       <c r="R30" t="n">
-        <v>47.75278095090924</v>
+        <v>47.75278095090923</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.37552280280602</v>
+        <v>109.8480592662544</v>
       </c>
       <c r="K31" t="n">
-        <v>90.22174718769837</v>
+        <v>90.22174718769836</v>
       </c>
       <c r="L31" t="n">
-        <v>110.8066930874814</v>
+        <v>253.8734912791973</v>
       </c>
       <c r="M31" t="n">
-        <v>253.8734912791973</v>
+        <v>114.2495914200052</v>
       </c>
       <c r="N31" t="n">
         <v>118.7564855431404</v>
@@ -37007,10 +37007,10 @@
         <v>102.9820441361794</v>
       </c>
       <c r="P31" t="n">
-        <v>118.0505676083093</v>
+        <v>164.0701478816293</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.1698986728175</v>
+        <v>51.23488360352525</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.43602885108267</v>
+        <v>76.43602885108264</v>
       </c>
       <c r="J32" t="n">
-        <v>24.42202036450954</v>
+        <v>173.2643713704934</v>
       </c>
       <c r="K32" t="n">
         <v>69.91544631605046</v>
@@ -37077,10 +37077,10 @@
         <v>110.964723004413</v>
       </c>
       <c r="M32" t="n">
-        <v>253.8734912791973</v>
+        <v>144.2626999441059</v>
       </c>
       <c r="N32" t="n">
-        <v>188.18077446729</v>
+        <v>149.6262893787274</v>
       </c>
       <c r="O32" t="n">
         <v>132.5323876018889</v>
@@ -37095,7 +37095,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>22.14643561305984</v>
+        <v>21.46936103072968</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37220,37 +37220,37 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.595848371808619</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.66413130075254</v>
+        <v>39.66413130075252</v>
       </c>
       <c r="J34" t="n">
-        <v>119.3925392648705</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>152.2387636497628</v>
+        <v>3.396412643778859</v>
       </c>
       <c r="L34" t="n">
-        <v>23.98135854356194</v>
+        <v>167.7210011559346</v>
       </c>
       <c r="M34" t="n">
-        <v>176.2666078820697</v>
+        <v>27.42425687608574</v>
       </c>
       <c r="N34" t="n">
-        <v>180.7735020052048</v>
+        <v>31.93115099922089</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26653779113837</v>
+        <v>164.9990605982438</v>
       </c>
       <c r="P34" t="n">
-        <v>1.309420620664028</v>
+        <v>150.1517716266479</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>113.2519000655897</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>59.94902416357974</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37457,37 +37457,37 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.595848371808619</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.66413130075254</v>
+        <v>39.66413130075252</v>
       </c>
       <c r="J37" t="n">
-        <v>119.3925392648705</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>152.2387636497628</v>
+        <v>22.65227747335238</v>
       </c>
       <c r="L37" t="n">
-        <v>46.732613519255</v>
+        <v>172.8237095495459</v>
       </c>
       <c r="M37" t="n">
-        <v>27.42425687608574</v>
+        <v>176.2666078820696</v>
       </c>
       <c r="N37" t="n">
-        <v>31.93115099922089</v>
+        <v>180.7735020052048</v>
       </c>
       <c r="O37" t="n">
-        <v>164.9990605982438</v>
+        <v>16.15670959225986</v>
       </c>
       <c r="P37" t="n">
-        <v>1.309420620664028</v>
+        <v>150.1517716266479</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.2519000655897</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>59.94902416357977</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37694,19 +37694,19 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.595848371808619</v>
+        <v>1.59584837180859</v>
       </c>
       <c r="I40" t="n">
-        <v>39.66413130075254</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>119.3925392648705</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>152.2387636497628</v>
+        <v>3.396412643778859</v>
       </c>
       <c r="L40" t="n">
-        <v>23.98135854356194</v>
+        <v>56.94693307889386</v>
       </c>
       <c r="M40" t="n">
         <v>27.42425687608574</v>
@@ -37715,16 +37715,16 @@
         <v>180.7735020052048</v>
       </c>
       <c r="O40" t="n">
-        <v>16.15670959225986</v>
+        <v>164.9990605982438</v>
       </c>
       <c r="P40" t="n">
-        <v>24.06067559635679</v>
+        <v>150.1517716266479</v>
       </c>
       <c r="Q40" t="n">
         <v>113.2519000655897</v>
       </c>
       <c r="R40" t="n">
-        <v>59.94902416357977</v>
+        <v>59.94902416357974</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37852,7 +37852,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>20.44341894784359</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>83.97805224740682</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1609555020482</v>
+        <v>23.36187399990074</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>66.35566255430385</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>75.97840440620058</v>
+        <v>75.97840440620062</v>
       </c>
       <c r="K43" t="n">
-        <v>90.15677859566384</v>
+        <v>108.824628791093</v>
       </c>
       <c r="L43" t="n">
-        <v>129.409574690876</v>
+        <v>94.20683519053671</v>
       </c>
       <c r="M43" t="n">
-        <v>132.8524730233998</v>
+        <v>27.42425687608574</v>
       </c>
       <c r="N43" t="n">
         <v>137.359367146535</v>
       </c>
       <c r="O43" t="n">
-        <v>121.5849257395739</v>
+        <v>121.584925739574</v>
       </c>
       <c r="P43" t="n">
-        <v>1.309420620664028</v>
+        <v>106.7376367679781</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.83776520691983</v>
+        <v>69.83776520691987</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.53488930490995</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>110.964723004413</v>
       </c>
       <c r="M44" t="n">
-        <v>144.2626999441059</v>
+        <v>144.2626999441058</v>
       </c>
       <c r="N44" t="n">
         <v>149.6262893787274</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>71.58143004523693</v>
       </c>
       <c r="J45" t="n">
-        <v>88.98951748119059</v>
+        <v>2.190435979043144</v>
       </c>
       <c r="K45" t="n">
         <v>55.05757778498823</v>
@@ -38119,7 +38119,7 @@
         <v>23.36187399990074</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.21765145691054</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>75.97840440620057</v>
+        <v>75.97840440620062</v>
       </c>
       <c r="K46" t="n">
-        <v>108.8246287910929</v>
+        <v>108.824628791093</v>
       </c>
       <c r="L46" t="n">
-        <v>23.98135854356194</v>
+        <v>129.4095746908761</v>
       </c>
       <c r="M46" t="n">
-        <v>132.8524730233998</v>
+        <v>132.8524730233999</v>
       </c>
       <c r="N46" t="n">
         <v>137.359367146535</v>
       </c>
       <c r="O46" t="n">
-        <v>86.38218623923508</v>
+        <v>16.15670959225986</v>
       </c>
       <c r="P46" t="n">
         <v>106.7376367679781</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.83776520691981</v>
+        <v>51.16991501149045</v>
       </c>
       <c r="R46" t="n">
-        <v>16.53488930490989</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
